--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.25</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>1.72</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>1.75</v>
@@ -4557,7 +4557,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU20" t="n">
         <v>1.59</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.29</v>
@@ -5775,7 +5775,7 @@
         <v>0.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -5978,7 +5978,7 @@
         <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.91</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>1.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7399,7 +7399,7 @@
         <v>0.33</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AU34" t="n">
         <v>0.9</v>
@@ -7654,6 +7654,615 @@
       </c>
       <c r="BK35" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5139289</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45038.5625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['62', '66']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5139287</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45039.27083333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['14', '36']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['17', '38', '66']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5139290</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45039.35416666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['53', '63']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>11</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>0.25</v>
@@ -2727,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1.33</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>1.55</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>2.4</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>2.33</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>0.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU29" t="n">
         <v>0.98</v>
@@ -7193,7 +7193,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6</v>
@@ -8263,6 +8263,412 @@
       </c>
       <c r="BK38" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5139288</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['33', '60']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>7</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6</v>
+      </c>
+      <c r="S39" t="n">
+        <v>13</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5139291</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45039.54166666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['17', '36']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['1', '86']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>6</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT3" t="n">
         <v>1.6</v>
@@ -1309,7 +1309,7 @@
         <v>1.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU7" t="n">
         <v>1.84</v>
@@ -2527,7 +2527,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>1.55</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT13" t="n">
         <v>2.33</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU14" t="n">
         <v>2.35</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.58</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT26" t="n">
         <v>2.5</v>
@@ -6381,7 +6381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.6</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU30" t="n">
         <v>1.97</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU31" t="n">
         <v>0.65</v>
@@ -7196,7 +7196,7 @@
         <v>1.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.17</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT34" t="n">
         <v>2.4</v>
@@ -8669,6 +8669,615 @@
       </c>
       <c r="BK40" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5139292</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45044.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5139295</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45044.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['51', '90']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5139293</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45045.33333333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['34', '52', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>12</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0.78</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT18" t="n">
         <v>0.25</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>0.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT27" t="n">
         <v>2.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8856,22 +8856,22 @@
         <v>0</v>
       </c>
       <c r="BF41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI41" t="n">
         <v>4</v>
       </c>
       <c r="BJ41" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BK41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -9062,19 +9062,19 @@
         <v>4</v>
       </c>
       <c r="BG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH42" t="n">
         <v>4</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>3</v>
       </c>
       <c r="BI42" t="n">
         <v>3</v>
       </c>
       <c r="BJ42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -9277,6 +9277,412 @@
         <v>24</v>
       </c>
       <c r="BK43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5139294</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['40', '42', '80']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5139296</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45045.5625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>11</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK45" t="n">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK45"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>2.6</v>
@@ -4151,7 +4151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU18" t="n">
         <v>1.89</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.84</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>2.25</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>2.4</v>
@@ -9684,6 +9684,209 @@
       </c>
       <c r="BK45" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5139297</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45048.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['51', '73']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT5" t="n">
         <v>1.75</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>1.17</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU10" t="n">
         <v>1.55</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -3136,7 +3136,7 @@
         <v>0.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0.78</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.59</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.17</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.91</v>
@@ -6178,7 +6178,7 @@
         <v>0.33</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.2</v>
@@ -6381,7 +6381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT29" t="n">
         <v>1.6</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU31" t="n">
         <v>0.65</v>
@@ -7193,7 +7193,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU34" t="n">
         <v>0.9</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.25</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.08</v>
@@ -8817,7 +8817,7 @@
         <v>0.6</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT41" t="n">
         <v>0.67</v>
@@ -9226,7 +9226,7 @@
         <v>0.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9429,7 +9429,7 @@
         <v>1.17</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU44" t="n">
         <v>1.67</v>
@@ -9629,7 +9629,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>2.6</v>
@@ -9748,13 +9748,13 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T46" t="n">
         <v>2.1</v>
@@ -9871,22 +9871,834 @@
         <v>0</v>
       </c>
       <c r="BF46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG46" t="n">
         <v>3</v>
       </c>
-      <c r="BG46" t="n">
+      <c r="BH46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5139298</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45048.58333333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
         <v>2</v>
       </c>
-      <c r="BH46" t="n">
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['84', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>11</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI47" t="n">
         <v>2</v>
       </c>
-      <c r="BI46" t="n">
+      <c r="BJ47" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5139305</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45049.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['7', '11', '29']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL48" t="n">
         <v>2</v>
       </c>
-      <c r="BJ46" t="n">
+      <c r="AM48" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG48" t="n">
         <v>5</v>
       </c>
-      <c r="BK46" t="n">
+      <c r="BH48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5139303</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45049.54166666666</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['20', '28']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG49" t="n">
         <v>4</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5139304</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45049.58333333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['55', '65']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK50"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT2" t="n">
         <v>0.2</v>
@@ -1106,7 +1106,7 @@
         <v>0.25</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT6" t="n">
         <v>0.2</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT7" t="n">
         <v>0.67</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -2730,7 +2730,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT14" t="n">
         <v>1.75</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.55</v>
@@ -3745,7 +3745,7 @@
         <v>0.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT22" t="n">
         <v>0.67</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT23" t="n">
         <v>2.6</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -6384,7 +6384,7 @@
         <v>0.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>0.98</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT30" t="n">
         <v>1.75</v>
@@ -6993,7 +6993,7 @@
         <v>1.17</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -8005,7 +8005,7 @@
         <v>0.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>2.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8411,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.08</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.75</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AU45" t="n">
         <v>1.27</v>
@@ -10444,7 +10444,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU49" t="n">
         <v>1.82</v>
@@ -10699,6 +10699,615 @@
       </c>
       <c r="BK50" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5139307</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['52', '90+7']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>6</v>
+      </c>
+      <c r="T51" t="n">
+        <v>15</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5139306</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45053.27083333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>11</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['37', '39', '46', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>13</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5139309</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45053.35416666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['43', '74', '85']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>12</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>16</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1512,7 +1512,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT12" t="n">
         <v>2.17</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT13" t="n">
         <v>2.6</v>
@@ -3339,7 +3339,7 @@
         <v>0.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2.35</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT26" t="n">
         <v>2.17</v>
@@ -6587,7 +6587,7 @@
         <v>2.17</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.97</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT31" t="n">
         <v>2.4</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
         <v>2.5</v>
@@ -9023,7 +9023,7 @@
         <v>0.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.54</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT43" t="n">
         <v>2.4</v>
@@ -9832,7 +9832,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.2</v>
@@ -10886,22 +10886,22 @@
         <v>0</v>
       </c>
       <c r="BF51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BK51" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -11308,6 +11308,412 @@
       </c>
       <c r="BK53" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5139260</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45053.45833333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>11</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['25', '43']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5139308</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45053.54166666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8</v>
+      </c>
+      <c r="S55" t="n">
+        <v>13</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.17</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.89</v>
@@ -6181,7 +6181,7 @@
         <v>2.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.84</v>
@@ -9835,7 +9835,7 @@
         <v>1.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.59</v>
@@ -11714,6 +11714,209 @@
       </c>
       <c r="BK55" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5139311</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45058.54166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -2121,7 +2121,7 @@
         <v>0.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT10" t="n">
         <v>2.4</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0.78</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT18" t="n">
         <v>0.33</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU20" t="n">
         <v>1.59</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>0.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU27" t="n">
         <v>1.91</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>2.4</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7193,7 +7193,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7399,7 +7399,7 @@
         <v>0.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU34" t="n">
         <v>0.9</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU36" t="n">
         <v>1.25</v>
@@ -8211,7 +8211,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT40" t="n">
         <v>1.2</v>
@@ -9426,10 +9426,10 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.67</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.27</v>
@@ -9832,7 +9832,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>0.33</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10241,7 +10241,7 @@
         <v>0.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU48" t="n">
         <v>1.43</v>
@@ -10644,7 +10644,7 @@
         <v>2.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT50" t="n">
         <v>2.4</v>
@@ -10850,7 +10850,7 @@
         <v>0.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11050,7 +11050,7 @@
         <v>0.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.2</v>
@@ -11456,7 +11456,7 @@
         <v>1.75</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11917,6 +11917,818 @@
       </c>
       <c r="BK56" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5139312</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['69', '75']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5139313</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45059.5625</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>7</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>9</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V58" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5139314</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45060.35416666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['16', '36', '75']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7</v>
+      </c>
+      <c r="T59" t="n">
+        <v>7</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5139315</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45060.45833333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="n">
+        <v>7</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT12" t="n">
         <v>2.29</v>
@@ -3136,7 +3136,7 @@
         <v>0.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0.78</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU15" t="n">
         <v>1.55</v>
@@ -4557,7 +4557,7 @@
         <v>1.14</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>1.59</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT22" t="n">
         <v>0.67</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5978,7 +5978,7 @@
         <v>1.14</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
         <v>1.91</v>
@@ -6384,7 +6384,7 @@
         <v>0.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU29" t="n">
         <v>0.98</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT31" t="n">
         <v>2.4</v>
@@ -7399,7 +7399,7 @@
         <v>0.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU34" t="n">
         <v>0.9</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU36" t="n">
         <v>1.25</v>
@@ -8005,7 +8005,7 @@
         <v>0.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8411,10 +8411,10 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>1.14</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU44" t="n">
         <v>1.67</v>
@@ -9832,7 +9832,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
         <v>0.33</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10241,7 +10241,7 @@
         <v>0.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU48" t="n">
         <v>1.43</v>
@@ -10847,7 +10847,7 @@
         <v>2.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT51" t="n">
         <v>2.29</v>
@@ -11050,7 +11050,7 @@
         <v>0.75</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT52" t="n">
         <v>1.2</v>
@@ -11256,7 +11256,7 @@
         <v>2.17</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11456,7 +11456,7 @@
         <v>1.75</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -12068,7 +12068,7 @@
         <v>1.14</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.2</v>
@@ -12471,10 +12471,10 @@
         <v>2.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU59" t="n">
         <v>1.62</v>
@@ -12674,7 +12674,7 @@
         <v>2.17</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT60" t="n">
         <v>2.29</v>
@@ -12729,6 +12729,615 @@
       </c>
       <c r="BK60" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5139316</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45065.54166666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>12</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X61" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5139317</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['4', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>8</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5139318</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45066.5625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['66', '70']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>7</v>
+      </c>
+      <c r="R63" t="n">
+        <v>9</v>
+      </c>
+      <c r="S63" t="n">
+        <v>16</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>2.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>2.4</v>
@@ -2933,7 +2933,7 @@
         <v>0.86</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU14" t="n">
         <v>2.35</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.2</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>0.33</v>
@@ -5775,7 +5775,7 @@
         <v>0.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>2.63</v>
@@ -6381,7 +6381,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.57</v>
@@ -6587,7 +6587,7 @@
         <v>2.17</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU30" t="n">
         <v>1.97</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT34" t="n">
         <v>2.63</v>
@@ -8211,7 +8211,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8817,7 +8817,7 @@
         <v>0.6</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.67</v>
@@ -9023,7 +9023,7 @@
         <v>0.43</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU42" t="n">
         <v>1.54</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>2.71</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU45" t="n">
         <v>1.27</v>
@@ -10238,7 +10238,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT48" t="n">
         <v>2.71</v>
@@ -10850,7 +10850,7 @@
         <v>0.43</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11459,7 +11459,7 @@
         <v>0.86</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU54" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>0.86</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13338,6 +13338,412 @@
       </c>
       <c r="BK63" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5139319</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45067.35416666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>13</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['20', '32']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['9', '67']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5139320</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45067.45833333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>12</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>15</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>7</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.57</v>
@@ -1977,7 +1977,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5139263</v>
+        <v>5139266</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1997,140 +1997,140 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Tallinna FC Levadia</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>['10', '24', '79']</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>['42', '72']</t>
-        </is>
-      </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X8" t="n">
-        <v>3.22</v>
+        <v>3.16</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.55</v>
+        <v>5.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.51</v>
+        <v>1.41</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.44</v>
+        <v>4.44</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.52</v>
+        <v>6.85</v>
       </c>
       <c r="AF8" t="n">
         <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>1.18</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.35</v>
+        <v>3.85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.46</v>
+        <v>1.86</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.43</v>
+        <v>2.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG8" t="n">
         <v>4</v>
       </c>
       <c r="BH8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BJ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5139266</v>
+        <v>5139263</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2200,140 +2200,140 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tallinna FC Levadia</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tammeka</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['42', '72']</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>['10', '24', '79']</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.9</v>
+        <v>5.55</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.41</v>
+        <v>2.51</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.44</v>
+        <v>3.44</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.85</v>
+        <v>2.52</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>1.18</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.86</v>
+        <v>1.46</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG9" t="n">
         <v>4</v>
       </c>
       <c r="BH9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU10" t="n">
         <v>1.55</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT11" t="n">
         <v>1.57</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0.78</v>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1.57</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2.17</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>1.75</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT20" t="n">
         <v>2.63</v>
@@ -4760,7 +4760,7 @@
         <v>2.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT22" t="n">
         <v>0.67</v>
@@ -5166,7 +5166,7 @@
         <v>0.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.89</v>
@@ -5366,10 +5366,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU24" t="n">
         <v>1.29</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.19</v>
@@ -6787,10 +6787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU31" t="n">
         <v>0.65</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>1.92</v>
@@ -7193,7 +7193,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT36" t="n">
         <v>2.63</v>
@@ -8005,10 +8005,10 @@
         <v>0.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU37" t="n">
         <v>1.36</v>
@@ -8211,7 +8211,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.91</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU40" t="n">
         <v>1.08</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT42" t="n">
         <v>2.17</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU44" t="n">
         <v>1.67</v>
@@ -9629,10 +9629,10 @@
         <v>2.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.27</v>
@@ -9832,7 +9832,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT46" t="n">
         <v>0.33</v>
@@ -10035,7 +10035,7 @@
         <v>2.4</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT47" t="n">
         <v>2.63</v>
@@ -10241,7 +10241,7 @@
         <v>0.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU48" t="n">
         <v>1.43</v>
@@ -10444,7 +10444,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.82</v>
@@ -10644,10 +10644,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.16</v>
@@ -10847,10 +10847,10 @@
         <v>2.6</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11053,7 +11053,7 @@
         <v>0.57</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.59</v>
@@ -11456,7 +11456,7 @@
         <v>1.75</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT54" t="n">
         <v>2.17</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -11862,7 +11862,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT56" t="n">
         <v>0.33</v>
@@ -12065,7 +12065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT57" t="n">
         <v>2.63</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12474,7 +12474,7 @@
         <v>0.57</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU59" t="n">
         <v>1.62</v>
@@ -12674,10 +12674,10 @@
         <v>2.17</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12877,10 +12877,10 @@
         <v>2.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.39</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT62" t="n">
         <v>1.57</v>
@@ -13489,7 +13489,7 @@
         <v>0.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.22</v>
@@ -13744,6 +13744,1021 @@
       </c>
       <c r="BK65" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5139321</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45069.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>8</v>
+      </c>
+      <c r="S66" t="n">
+        <v>11</v>
+      </c>
+      <c r="T66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5139322</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45069.58333333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>8</v>
+      </c>
+      <c r="S67" t="n">
+        <v>11</v>
+      </c>
+      <c r="T67" t="n">
+        <v>4</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5139323</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45070.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>14</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['71', '89']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5139324</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45070.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>14</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5139325</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45070.54166666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>14</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>10</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13</v>
+      </c>
+      <c r="T70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT5" t="n">
         <v>2.17</v>
@@ -1715,7 +1715,7 @@
         <v>0.57</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>1.84</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT8" t="n">
         <v>1.29</v>
@@ -2324,7 +2324,7 @@
         <v>0.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>1.55</v>
@@ -2727,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU15" t="n">
         <v>1.55</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT16" t="n">
         <v>1.17</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT17" t="n">
         <v>1.29</v>
@@ -4148,10 +4148,10 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU18" t="n">
         <v>1.89</v>
@@ -4354,7 +4354,7 @@
         <v>0.86</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.59</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -4963,7 +4963,7 @@
         <v>0.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.58</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.29</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.91</v>
@@ -6178,10 +6178,10 @@
         <v>0.33</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU28" t="n">
         <v>1.84</v>
@@ -6381,10 +6381,10 @@
         <v>1.67</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>0.98</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT30" t="n">
         <v>2.17</v>
@@ -6790,7 +6790,7 @@
         <v>0.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>0.65</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7193,10 +7193,10 @@
         <v>0.75</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.17</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU34" t="n">
         <v>0.9</v>
@@ -7805,7 +7805,7 @@
         <v>0.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.25</v>
@@ -8208,7 +8208,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT38" t="n">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>0.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU39" t="n">
         <v>1.48</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>1.17</v>
@@ -8817,10 +8817,10 @@
         <v>0.6</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.33</v>
@@ -9226,7 +9226,7 @@
         <v>0.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9426,7 +9426,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT44" t="n">
         <v>2.75</v>
@@ -9835,7 +9835,7 @@
         <v>0.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.59</v>
@@ -10038,7 +10038,7 @@
         <v>0.86</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.23</v>
@@ -10238,7 +10238,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT48" t="n">
         <v>2.75</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1.17</v>
@@ -10644,10 +10644,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU50" t="n">
         <v>1.16</v>
@@ -11253,10 +11253,10 @@
         <v>1.6</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11865,7 +11865,7 @@
         <v>0.86</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU56" t="n">
         <v>1.42</v>
@@ -12065,10 +12065,10 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU57" t="n">
         <v>1.2</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT58" t="n">
         <v>1.29</v>
@@ -13083,7 +13083,7 @@
         <v>0.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -13286,7 +13286,7 @@
         <v>0.57</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.53</v>
@@ -13486,7 +13486,7 @@
         <v>2.29</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT65" t="n">
         <v>2.17</v>
@@ -14098,7 +14098,7 @@
         <v>0.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.27</v>
@@ -14704,7 +14704,7 @@
         <v>2.13</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>2</v>
@@ -14752,13 +14752,1028 @@
         <v>3</v>
       </c>
       <c r="BI70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ70" t="n">
         <v>6</v>
       </c>
       <c r="BK70" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5139326</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45073.45833333334</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Tammeka</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Kuressaare</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6</v>
+      </c>
+      <c r="S71" t="n">
+        <v>7</v>
+      </c>
+      <c r="T71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5139327</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45073.5625</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Tallinna FC Flora</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Tallinna Kalev</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['8', '19', '90+3']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V72" t="n">
+        <v>11</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5139328</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45074.35416666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Tallinna FC Levadia</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Nõmme Kalju</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['18', '31']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>8</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V73" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5139329</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45074.45833333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Vaprus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Harju Jalgpallikool</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V74" t="n">
+        <v>6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG74" t="n">
         <v>12</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5139330</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Estonia Meistriliiga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45074.54166666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Paide</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['17', '75']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>7</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V75" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['61', '88']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -497,6 +503,9 @@
   </si>
   <si>
     <t>['17', '75']</t>
+  </si>
+  <si>
+    <t>['76', '83']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK75"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT2">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1380,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT3">
         <v>1.38</v>
@@ -1574,7 +1583,7 @@
         <v>0.89</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1765,7 +1774,7 @@
         <v>2.67</v>
       </c>
       <c r="AT5">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1953,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2144,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU7">
         <v>1.84</v>
@@ -2439,7 +2448,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2821,7 +2830,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3012,7 +3021,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3102,7 +3111,7 @@
         <v>0.75</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3203,7 +3212,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3290,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT13">
         <v>2.75</v>
@@ -3394,7 +3403,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3481,10 +3490,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3585,7 +3594,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3863,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT16">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3967,7 +3976,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4054,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT17">
         <v>1.29</v>
@@ -4248,7 +4257,7 @@
         <v>0.89</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU18">
         <v>1.89</v>
@@ -4436,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4540,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4922,7 +4931,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5012,7 +5021,7 @@
         <v>0.5</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5113,7 +5122,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5200,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT23">
         <v>2.75</v>
@@ -5582,10 +5591,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT25">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5686,7 +5695,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5773,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU26">
         <v>1.19</v>
@@ -5877,7 +5886,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6068,7 +6077,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6158,7 +6167,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU28">
         <v>1.84</v>
@@ -6259,7 +6268,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6346,7 +6355,7 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT29">
         <v>1.38</v>
@@ -6537,10 +6546,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT30">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -6922,7 +6931,7 @@
         <v>0.89</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU32">
         <v>1.92</v>
@@ -7113,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -7214,7 +7223,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7301,7 +7310,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT34">
         <v>2.33</v>
@@ -7405,7 +7414,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7492,7 +7501,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT35">
         <v>2.75</v>
@@ -7596,7 +7605,7 @@
         <v>97</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7787,7 +7796,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7978,7 +7987,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8065,10 +8074,10 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU38">
         <v>1.91</v>
@@ -8256,7 +8265,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT39">
         <v>1.38</v>
@@ -8360,7 +8369,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8450,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU40">
         <v>1.08</v>
@@ -8551,7 +8560,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8638,10 +8647,10 @@
         <v>0.6</v>
       </c>
       <c r="AS41">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -8742,7 +8751,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8832,7 +8841,7 @@
         <v>0.5</v>
       </c>
       <c r="AT42">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -8933,7 +8942,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9020,7 +9029,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT43">
         <v>2</v>
@@ -9124,7 +9133,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9315,7 +9324,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9402,10 +9411,10 @@
         <v>2.5</v>
       </c>
       <c r="AS45">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -9596,7 +9605,7 @@
         <v>0.75</v>
       </c>
       <c r="AT46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU46">
         <v>1.59</v>
@@ -9697,7 +9706,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9784,7 +9793,7 @@
         <v>2.4</v>
       </c>
       <c r="AS47">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT47">
         <v>2.33</v>
@@ -9888,7 +9897,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -9975,7 +9984,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT48">
         <v>2.75</v>
@@ -10169,7 +10178,7 @@
         <v>2.67</v>
       </c>
       <c r="AT49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.82</v>
@@ -10270,7 +10279,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10461,7 +10470,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10551,7 +10560,7 @@
         <v>0.5</v>
       </c>
       <c r="AT51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU51">
         <v>1.47</v>
@@ -10652,7 +10661,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10739,10 +10748,10 @@
         <v>0.75</v>
       </c>
       <c r="AS52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU52">
         <v>1.59</v>
@@ -10843,7 +10852,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -10930,7 +10939,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT53">
         <v>1.38</v>
@@ -11034,7 +11043,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11124,7 +11133,7 @@
         <v>0.75</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11225,7 +11234,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11312,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT55">
         <v>1.29</v>
@@ -11416,7 +11425,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11503,10 +11512,10 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU56">
         <v>1.42</v>
@@ -11607,7 +11616,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11989,7 +11998,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12076,7 +12085,7 @@
         <v>2.6</v>
       </c>
       <c r="AS59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT59">
         <v>2.75</v>
@@ -12270,7 +12279,7 @@
         <v>0.75</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12371,7 +12380,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12562,7 +12571,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12753,7 +12762,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12840,7 +12849,7 @@
         <v>2.57</v>
       </c>
       <c r="AS63">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT63">
         <v>2.33</v>
@@ -12944,7 +12953,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13031,10 +13040,10 @@
         <v>2.29</v>
       </c>
       <c r="AS64">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU64">
         <v>1.22</v>
@@ -13225,7 +13234,7 @@
         <v>0.89</v>
       </c>
       <c r="AT65">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13517,7 +13526,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13708,7 +13717,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13795,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT68">
         <v>1.29</v>
@@ -13986,10 +13995,10 @@
         <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT69">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU69">
         <v>1.36</v>
@@ -14180,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU70">
         <v>1.22</v>
@@ -14368,7 +14377,7 @@
         <v>2.17</v>
       </c>
       <c r="AS71">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AT71">
         <v>2</v>
@@ -14559,7 +14568,7 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT72">
         <v>2.33</v>
@@ -14663,7 +14672,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14854,7 +14863,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -14944,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU74">
         <v>1.18</v>
@@ -15045,7 +15054,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15135,7 +15144,7 @@
         <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU75">
         <v>1.74</v>
@@ -15187,6 +15196,961 @@
       </c>
       <c r="BK75">
         <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5139331</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45083.5</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q76">
+        <v>6</v>
+      </c>
+      <c r="R76">
+        <v>9</v>
+      </c>
+      <c r="S76">
+        <v>15</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="U76">
+        <v>2.38</v>
+      </c>
+      <c r="V76">
+        <v>1.95</v>
+      </c>
+      <c r="W76">
+        <v>1.35</v>
+      </c>
+      <c r="X76">
+        <v>2.95</v>
+      </c>
+      <c r="Y76">
+        <v>2.55</v>
+      </c>
+      <c r="Z76">
+        <v>1.45</v>
+      </c>
+      <c r="AA76">
+        <v>6.1</v>
+      </c>
+      <c r="AB76">
+        <v>1.09</v>
+      </c>
+      <c r="AC76">
+        <v>6</v>
+      </c>
+      <c r="AD76">
+        <v>4.2</v>
+      </c>
+      <c r="AE76">
+        <v>1.44</v>
+      </c>
+      <c r="AF76">
+        <v>1.01</v>
+      </c>
+      <c r="AG76">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH76">
+        <v>1.22</v>
+      </c>
+      <c r="AI76">
+        <v>3.8</v>
+      </c>
+      <c r="AJ76">
+        <v>1.7</v>
+      </c>
+      <c r="AK76">
+        <v>2</v>
+      </c>
+      <c r="AL76">
+        <v>1.85</v>
+      </c>
+      <c r="AM76">
+        <v>1.85</v>
+      </c>
+      <c r="AN76">
+        <v>2.45</v>
+      </c>
+      <c r="AO76">
+        <v>1.17</v>
+      </c>
+      <c r="AP76">
+        <v>1.07</v>
+      </c>
+      <c r="AQ76">
+        <v>0.57</v>
+      </c>
+      <c r="AR76">
+        <v>2</v>
+      </c>
+      <c r="AS76">
+        <v>0.5</v>
+      </c>
+      <c r="AT76">
+        <v>2.1</v>
+      </c>
+      <c r="AU76">
+        <v>1.6</v>
+      </c>
+      <c r="AV76">
+        <v>1.87</v>
+      </c>
+      <c r="AW76">
+        <v>3.47</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>0</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>3</v>
+      </c>
+      <c r="BG76">
+        <v>6</v>
+      </c>
+      <c r="BH76">
+        <v>5</v>
+      </c>
+      <c r="BI76">
+        <v>17</v>
+      </c>
+      <c r="BJ76">
+        <v>8</v>
+      </c>
+      <c r="BK76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5139332</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45083.58333333334</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>119</v>
+      </c>
+      <c r="P77" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <v>7</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>11</v>
+      </c>
+      <c r="T77">
+        <v>2.45</v>
+      </c>
+      <c r="U77">
+        <v>2.24</v>
+      </c>
+      <c r="V77">
+        <v>4.75</v>
+      </c>
+      <c r="W77">
+        <v>1.39</v>
+      </c>
+      <c r="X77">
+        <v>2.87</v>
+      </c>
+      <c r="Y77">
+        <v>2.86</v>
+      </c>
+      <c r="Z77">
+        <v>1.4</v>
+      </c>
+      <c r="AA77">
+        <v>6.25</v>
+      </c>
+      <c r="AB77">
+        <v>1.09</v>
+      </c>
+      <c r="AC77">
+        <v>1.75</v>
+      </c>
+      <c r="AD77">
+        <v>3.4</v>
+      </c>
+      <c r="AE77">
+        <v>4</v>
+      </c>
+      <c r="AF77">
+        <v>1.03</v>
+      </c>
+      <c r="AG77">
+        <v>11</v>
+      </c>
+      <c r="AH77">
+        <v>1.3</v>
+      </c>
+      <c r="AI77">
+        <v>3.4</v>
+      </c>
+      <c r="AJ77">
+        <v>1.83</v>
+      </c>
+      <c r="AK77">
+        <v>1.85</v>
+      </c>
+      <c r="AL77">
+        <v>1.8</v>
+      </c>
+      <c r="AM77">
+        <v>1.95</v>
+      </c>
+      <c r="AN77">
+        <v>1.14</v>
+      </c>
+      <c r="AO77">
+        <v>1.25</v>
+      </c>
+      <c r="AP77">
+        <v>1.9</v>
+      </c>
+      <c r="AQ77">
+        <v>0.86</v>
+      </c>
+      <c r="AR77">
+        <v>2.17</v>
+      </c>
+      <c r="AS77">
+        <v>1.13</v>
+      </c>
+      <c r="AT77">
+        <v>1.86</v>
+      </c>
+      <c r="AU77">
+        <v>1.39</v>
+      </c>
+      <c r="AV77">
+        <v>1.23</v>
+      </c>
+      <c r="AW77">
+        <v>2.62</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>0</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>2</v>
+      </c>
+      <c r="BG77">
+        <v>5</v>
+      </c>
+      <c r="BH77">
+        <v>6</v>
+      </c>
+      <c r="BI77">
+        <v>11</v>
+      </c>
+      <c r="BJ77">
+        <v>8</v>
+      </c>
+      <c r="BK77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>5139333</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>120</v>
+      </c>
+      <c r="P78" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+      <c r="R78">
+        <v>6</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78">
+        <v>2.4</v>
+      </c>
+      <c r="U78">
+        <v>2.29</v>
+      </c>
+      <c r="V78">
+        <v>4.57</v>
+      </c>
+      <c r="W78">
+        <v>1.37</v>
+      </c>
+      <c r="X78">
+        <v>2.99</v>
+      </c>
+      <c r="Y78">
+        <v>2.73</v>
+      </c>
+      <c r="Z78">
+        <v>1.43</v>
+      </c>
+      <c r="AA78">
+        <v>6.5</v>
+      </c>
+      <c r="AB78">
+        <v>1.08</v>
+      </c>
+      <c r="AC78">
+        <v>1.73</v>
+      </c>
+      <c r="AD78">
+        <v>3.5</v>
+      </c>
+      <c r="AE78">
+        <v>4</v>
+      </c>
+      <c r="AF78">
+        <v>1.01</v>
+      </c>
+      <c r="AG78">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH78">
+        <v>1.25</v>
+      </c>
+      <c r="AI78">
+        <v>3.42</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.91</v>
+      </c>
+      <c r="AL78">
+        <v>1.8</v>
+      </c>
+      <c r="AM78">
+        <v>1.9</v>
+      </c>
+      <c r="AN78">
+        <v>1.18</v>
+      </c>
+      <c r="AO78">
+        <v>1.24</v>
+      </c>
+      <c r="AP78">
+        <v>1.96</v>
+      </c>
+      <c r="AQ78">
+        <v>0.57</v>
+      </c>
+      <c r="AR78">
+        <v>0.71</v>
+      </c>
+      <c r="AS78">
+        <v>0.88</v>
+      </c>
+      <c r="AT78">
+        <v>0.63</v>
+      </c>
+      <c r="AU78">
+        <v>1.15</v>
+      </c>
+      <c r="AV78">
+        <v>1.02</v>
+      </c>
+      <c r="AW78">
+        <v>2.17</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>5</v>
+      </c>
+      <c r="BG78">
+        <v>3</v>
+      </c>
+      <c r="BH78">
+        <v>6</v>
+      </c>
+      <c r="BI78">
+        <v>2</v>
+      </c>
+      <c r="BJ78">
+        <v>11</v>
+      </c>
+      <c r="BK78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5139334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>66</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q79">
+        <v>4</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>7</v>
+      </c>
+      <c r="T79">
+        <v>3.18</v>
+      </c>
+      <c r="U79">
+        <v>2.15</v>
+      </c>
+      <c r="V79">
+        <v>3.05</v>
+      </c>
+      <c r="W79">
+        <v>1.37</v>
+      </c>
+      <c r="X79">
+        <v>2.95</v>
+      </c>
+      <c r="Y79">
+        <v>2.75</v>
+      </c>
+      <c r="Z79">
+        <v>1.42</v>
+      </c>
+      <c r="AA79">
+        <v>6.6</v>
+      </c>
+      <c r="AB79">
+        <v>1.08</v>
+      </c>
+      <c r="AC79">
+        <v>2.6</v>
+      </c>
+      <c r="AD79">
+        <v>3.25</v>
+      </c>
+      <c r="AE79">
+        <v>2.37</v>
+      </c>
+      <c r="AF79">
+        <v>1.05</v>
+      </c>
+      <c r="AG79">
+        <v>11.5</v>
+      </c>
+      <c r="AH79">
+        <v>1.22</v>
+      </c>
+      <c r="AI79">
+        <v>3.45</v>
+      </c>
+      <c r="AJ79">
+        <v>1.85</v>
+      </c>
+      <c r="AK79">
+        <v>1.85</v>
+      </c>
+      <c r="AL79">
+        <v>1.7</v>
+      </c>
+      <c r="AM79">
+        <v>2.05</v>
+      </c>
+      <c r="AN79">
+        <v>1.46</v>
+      </c>
+      <c r="AO79">
+        <v>1.27</v>
+      </c>
+      <c r="AP79">
+        <v>1.44</v>
+      </c>
+      <c r="AQ79">
+        <v>0.5</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AS79">
+        <v>0.43</v>
+      </c>
+      <c r="AT79">
+        <v>1.25</v>
+      </c>
+      <c r="AU79">
+        <v>1.32</v>
+      </c>
+      <c r="AV79">
+        <v>1.15</v>
+      </c>
+      <c r="AW79">
+        <v>2.47</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>5</v>
+      </c>
+      <c r="BG79">
+        <v>5</v>
+      </c>
+      <c r="BH79">
+        <v>10</v>
+      </c>
+      <c r="BI79">
+        <v>9</v>
+      </c>
+      <c r="BJ79">
+        <v>15</v>
+      </c>
+      <c r="BK79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>5139335</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45084.54166666666</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>9</v>
+      </c>
+      <c r="T80">
+        <v>1.95</v>
+      </c>
+      <c r="U80">
+        <v>2.3</v>
+      </c>
+      <c r="V80">
+        <v>5.5</v>
+      </c>
+      <c r="W80">
+        <v>1.32</v>
+      </c>
+      <c r="X80">
+        <v>3.1</v>
+      </c>
+      <c r="Y80">
+        <v>2.5</v>
+      </c>
+      <c r="Z80">
+        <v>1.47</v>
+      </c>
+      <c r="AA80">
+        <v>5.75</v>
+      </c>
+      <c r="AB80">
+        <v>1.11</v>
+      </c>
+      <c r="AC80">
+        <v>1.44</v>
+      </c>
+      <c r="AD80">
+        <v>4.2</v>
+      </c>
+      <c r="AE80">
+        <v>6</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>12</v>
+      </c>
+      <c r="AH80">
+        <v>1.22</v>
+      </c>
+      <c r="AI80">
+        <v>3.74</v>
+      </c>
+      <c r="AJ80">
+        <v>1.73</v>
+      </c>
+      <c r="AK80">
+        <v>2</v>
+      </c>
+      <c r="AL80">
+        <v>1.9</v>
+      </c>
+      <c r="AM80">
+        <v>1.8</v>
+      </c>
+      <c r="AN80">
+        <v>1.06</v>
+      </c>
+      <c r="AO80">
+        <v>1.17</v>
+      </c>
+      <c r="AP80">
+        <v>2.5</v>
+      </c>
+      <c r="AQ80">
+        <v>2.29</v>
+      </c>
+      <c r="AR80">
+        <v>1.17</v>
+      </c>
+      <c r="AS80">
+        <v>2.13</v>
+      </c>
+      <c r="AT80">
+        <v>1.14</v>
+      </c>
+      <c r="AU80">
+        <v>2.11</v>
+      </c>
+      <c r="AV80">
+        <v>1.6</v>
+      </c>
+      <c r="AW80">
+        <v>3.71</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>5</v>
+      </c>
+      <c r="BG80">
+        <v>6</v>
+      </c>
+      <c r="BH80">
+        <v>3</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>8</v>
+      </c>
+      <c r="BK80">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -16135,22 +16135,22 @@
         <v>0</v>
       </c>
       <c r="BF80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG80">
         <v>6</v>
       </c>
       <c r="BH80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ80">
+        <v>11</v>
+      </c>
+      <c r="BK80">
         <v>8</v>
-      </c>
-      <c r="BK80">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,12 @@
     <t>['61', '88']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['74', '90+1']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -422,9 +428,6 @@
   </si>
   <si>
     <t>['60', '90+4']</t>
-  </si>
-  <si>
-    <t>['29']</t>
   </si>
   <si>
     <t>['17', '38', '66']</t>
@@ -506,6 +509,9 @@
   </si>
   <si>
     <t>['76', '83']</t>
+  </si>
+  <si>
+    <t>['45+1', '54', '88', '90+2', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2448,7 +2454,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2729,7 +2735,7 @@
         <v>0.89</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU10">
         <v>1.55</v>
@@ -2830,7 +2836,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2917,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT11">
         <v>1.38</v>
@@ -3021,7 +3027,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3212,7 +3218,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3302,7 +3308,7 @@
         <v>0.43</v>
       </c>
       <c r="AT13">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU13">
         <v>0.78</v>
@@ -3403,7 +3409,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3594,7 +3600,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3976,7 +3982,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4445,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>1.25</v>
@@ -4549,7 +4555,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4636,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT20">
         <v>2.33</v>
@@ -4830,7 +4836,7 @@
         <v>2.67</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -4931,7 +4937,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5122,7 +5128,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5212,7 +5218,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU23">
         <v>1.89</v>
@@ -5400,7 +5406,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT24">
         <v>1.29</v>
@@ -5591,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
         <v>1.14</v>
@@ -5695,7 +5701,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5886,7 +5892,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6077,7 +6083,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6268,7 +6274,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6740,7 +6746,7 @@
         <v>0.75</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7119,7 +7125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT33">
         <v>1.25</v>
@@ -7223,7 +7229,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7414,7 +7420,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7501,10 +7507,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7605,7 +7611,7 @@
         <v>97</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="Q36">
         <v>7</v>
@@ -7796,7 +7802,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7987,7 +7993,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8369,7 +8375,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8456,7 +8462,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT40">
         <v>1.14</v>
@@ -8560,7 +8566,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8751,7 +8757,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8942,7 +8948,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9032,7 +9038,7 @@
         <v>0.43</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9133,7 +9139,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9223,7 +9229,7 @@
         <v>0.89</v>
       </c>
       <c r="AT44">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU44">
         <v>1.67</v>
@@ -9324,7 +9330,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9411,7 +9417,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>2.1</v>
@@ -9706,7 +9712,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9793,7 +9799,7 @@
         <v>2.4</v>
       </c>
       <c r="AS47">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT47">
         <v>2.33</v>
@@ -9897,7 +9903,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -9987,7 +9993,7 @@
         <v>0.88</v>
       </c>
       <c r="AT48">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU48">
         <v>1.43</v>
@@ -10279,7 +10285,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10366,10 +10372,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU50">
         <v>1.16</v>
@@ -10470,7 +10476,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10661,7 +10667,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10852,7 +10858,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -11043,7 +11049,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11234,7 +11240,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11425,7 +11431,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11512,7 +11518,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
         <v>0.63</v>
@@ -11616,7 +11622,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11703,7 +11709,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT57">
         <v>2.33</v>
@@ -11998,7 +12004,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12088,7 +12094,7 @@
         <v>0.5</v>
       </c>
       <c r="AT59">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12380,7 +12386,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12470,7 +12476,7 @@
         <v>0.5</v>
       </c>
       <c r="AT61">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -12571,7 +12577,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12762,7 +12768,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12953,7 +12959,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13425,7 +13431,7 @@
         <v>0.75</v>
       </c>
       <c r="AT66">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU66">
         <v>1.46</v>
@@ -13526,7 +13532,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13616,7 +13622,7 @@
         <v>0.5</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -13717,7 +13723,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13804,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT68">
         <v>1.29</v>
@@ -14186,7 +14192,7 @@
         <v>2.13</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT70">
         <v>2.1</v>
@@ -14380,7 +14386,7 @@
         <v>0.88</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU71">
         <v>1.22</v>
@@ -14672,7 +14678,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14863,7 +14869,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -14950,7 +14956,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT74">
         <v>0.63</v>
@@ -15054,7 +15060,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15245,7 +15251,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15523,7 +15529,7 @@
         <v>2.17</v>
       </c>
       <c r="AS77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT77">
         <v>1.86</v>
@@ -16150,6 +16156,388 @@
         <v>11</v>
       </c>
       <c r="BK80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5139337</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45087.45833333334</v>
+      </c>
+      <c r="F81">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>121</v>
+      </c>
+      <c r="P81" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>4</v>
+      </c>
+      <c r="S81">
+        <v>5</v>
+      </c>
+      <c r="T81">
+        <v>9.5</v>
+      </c>
+      <c r="U81">
+        <v>2.6</v>
+      </c>
+      <c r="V81">
+        <v>1.62</v>
+      </c>
+      <c r="W81">
+        <v>1.29</v>
+      </c>
+      <c r="X81">
+        <v>3.24</v>
+      </c>
+      <c r="Y81">
+        <v>2.5</v>
+      </c>
+      <c r="Z81">
+        <v>1.5</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81">
+        <v>1.11</v>
+      </c>
+      <c r="AC81">
+        <v>9.75</v>
+      </c>
+      <c r="AD81">
+        <v>6.2</v>
+      </c>
+      <c r="AE81">
+        <v>1.17</v>
+      </c>
+      <c r="AF81">
+        <v>1.01</v>
+      </c>
+      <c r="AG81">
+        <v>17</v>
+      </c>
+      <c r="AH81">
+        <v>1.17</v>
+      </c>
+      <c r="AI81">
+        <v>4.5</v>
+      </c>
+      <c r="AJ81">
+        <v>1.45</v>
+      </c>
+      <c r="AK81">
+        <v>2.6</v>
+      </c>
+      <c r="AL81">
+        <v>3</v>
+      </c>
+      <c r="AM81">
+        <v>1.37</v>
+      </c>
+      <c r="AN81">
+        <v>3.75</v>
+      </c>
+      <c r="AO81">
+        <v>1.06</v>
+      </c>
+      <c r="AP81">
+        <v>1.04</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
+        <v>2.75</v>
+      </c>
+      <c r="AS81">
+        <v>0.9</v>
+      </c>
+      <c r="AT81">
+        <v>2.78</v>
+      </c>
+      <c r="AU81">
+        <v>1.15</v>
+      </c>
+      <c r="AV81">
+        <v>2.08</v>
+      </c>
+      <c r="AW81">
+        <v>3.23</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>2</v>
+      </c>
+      <c r="BG81">
+        <v>11</v>
+      </c>
+      <c r="BH81">
+        <v>1</v>
+      </c>
+      <c r="BI81">
+        <v>7</v>
+      </c>
+      <c r="BJ81">
+        <v>3</v>
+      </c>
+      <c r="BK81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5139338</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45087.5625</v>
+      </c>
+      <c r="F82">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>122</v>
+      </c>
+      <c r="P82" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q82">
+        <v>8</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>13</v>
+      </c>
+      <c r="T82">
+        <v>2.4</v>
+      </c>
+      <c r="U82">
+        <v>2.2</v>
+      </c>
+      <c r="V82">
+        <v>4.33</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>2.88</v>
+      </c>
+      <c r="Y82">
+        <v>2.88</v>
+      </c>
+      <c r="Z82">
+        <v>1.36</v>
+      </c>
+      <c r="AA82">
+        <v>7</v>
+      </c>
+      <c r="AB82">
+        <v>1.07</v>
+      </c>
+      <c r="AC82">
+        <v>1.73</v>
+      </c>
+      <c r="AD82">
+        <v>3.5</v>
+      </c>
+      <c r="AE82">
+        <v>4</v>
+      </c>
+      <c r="AF82">
+        <v>1.03</v>
+      </c>
+      <c r="AG82">
+        <v>10</v>
+      </c>
+      <c r="AH82">
+        <v>1.29</v>
+      </c>
+      <c r="AI82">
+        <v>3.24</v>
+      </c>
+      <c r="AJ82">
+        <v>1.83</v>
+      </c>
+      <c r="AK82">
+        <v>1.85</v>
+      </c>
+      <c r="AL82">
+        <v>1.85</v>
+      </c>
+      <c r="AM82">
+        <v>1.91</v>
+      </c>
+      <c r="AN82">
+        <v>1.17</v>
+      </c>
+      <c r="AO82">
+        <v>1.2</v>
+      </c>
+      <c r="AP82">
+        <v>2.1</v>
+      </c>
+      <c r="AQ82">
+        <v>1.13</v>
+      </c>
+      <c r="AR82">
+        <v>2</v>
+      </c>
+      <c r="AS82">
+        <v>1.33</v>
+      </c>
+      <c r="AT82">
+        <v>1.75</v>
+      </c>
+      <c r="AU82">
+        <v>1.35</v>
+      </c>
+      <c r="AV82">
+        <v>1.92</v>
+      </c>
+      <c r="AW82">
+        <v>3.27</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>9</v>
+      </c>
+      <c r="BG82">
+        <v>2</v>
+      </c>
+      <c r="BH82">
+        <v>18</v>
+      </c>
+      <c r="BI82">
+        <v>6</v>
+      </c>
+      <c r="BJ82">
+        <v>27</v>
+      </c>
+      <c r="BK82">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,12 @@
     <t>['74', '90+1']</t>
   </si>
   <si>
+    <t>['21', '79']</t>
+  </si>
+  <si>
+    <t>['33', '62']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
   </si>
   <si>
     <t>['45+1', '54', '88', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT5">
         <v>1.86</v>
@@ -2350,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT8">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2454,7 +2466,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2541,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT9">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2836,7 +2848,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3027,7 +3039,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3114,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT12">
         <v>2.1</v>
@@ -3218,7 +3230,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3409,7 +3421,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3600,7 +3612,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3687,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT15">
         <v>1.38</v>
@@ -3881,7 +3893,7 @@
         <v>0.88</v>
       </c>
       <c r="AT16">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3982,7 +3994,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4072,7 +4084,7 @@
         <v>2.13</v>
       </c>
       <c r="AT17">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4555,7 +4567,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4645,7 +4657,7 @@
         <v>0.9</v>
       </c>
       <c r="AT20">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU20">
         <v>1.59</v>
@@ -4833,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT21">
         <v>1.75</v>
@@ -4937,7 +4949,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5024,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT22">
         <v>1.25</v>
@@ -5128,7 +5140,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5409,7 +5421,7 @@
         <v>0.9</v>
       </c>
       <c r="AT24">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5600,7 +5612,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5701,7 +5713,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5892,7 +5904,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -5982,7 +5994,7 @@
         <v>0.89</v>
       </c>
       <c r="AT27">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU27">
         <v>1.91</v>
@@ -6083,7 +6095,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6170,7 +6182,7 @@
         <v>0.33</v>
       </c>
       <c r="AS28">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT28">
         <v>0.63</v>
@@ -6274,7 +6286,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6743,7 +6755,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>1.75</v>
@@ -7229,7 +7241,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7319,7 +7331,7 @@
         <v>0.88</v>
       </c>
       <c r="AT34">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU34">
         <v>0.9</v>
@@ -7420,7 +7432,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7698,10 +7710,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT36">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU36">
         <v>1.25</v>
@@ -7802,7 +7814,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7889,10 +7901,10 @@
         <v>0.33</v>
       </c>
       <c r="AS37">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT37">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -7993,7 +8005,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8375,7 +8387,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8465,7 +8477,7 @@
         <v>0.9</v>
       </c>
       <c r="AT40">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU40">
         <v>1.08</v>
@@ -8566,7 +8578,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8757,7 +8769,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8844,7 +8856,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT42">
         <v>1.86</v>
@@ -8948,7 +8960,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9139,7 +9151,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9330,7 +9342,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9608,7 +9620,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>0.63</v>
@@ -9712,7 +9724,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9802,7 +9814,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU47">
         <v>1.23</v>
@@ -9903,7 +9915,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10181,10 +10193,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU49">
         <v>1.82</v>
@@ -10285,7 +10297,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10476,7 +10488,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10563,7 +10575,7 @@
         <v>2.6</v>
       </c>
       <c r="AS51">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT51">
         <v>2.1</v>
@@ -10667,7 +10679,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10757,7 +10769,7 @@
         <v>0.5</v>
       </c>
       <c r="AT52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>1.59</v>
@@ -10858,7 +10870,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -11049,7 +11061,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11136,7 +11148,7 @@
         <v>1.75</v>
       </c>
       <c r="AS54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT54">
         <v>1.86</v>
@@ -11240,7 +11252,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11330,7 +11342,7 @@
         <v>0.43</v>
       </c>
       <c r="AT55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11431,7 +11443,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11622,7 +11634,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11712,7 +11724,7 @@
         <v>0.9</v>
       </c>
       <c r="AT57">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11903,7 +11915,7 @@
         <v>0.89</v>
       </c>
       <c r="AT58">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12004,7 +12016,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12282,7 +12294,7 @@
         <v>2.17</v>
       </c>
       <c r="AS60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT60">
         <v>2.1</v>
@@ -12386,7 +12398,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12473,7 +12485,7 @@
         <v>2.67</v>
       </c>
       <c r="AS61">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT61">
         <v>2.78</v>
@@ -12577,7 +12589,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12664,7 +12676,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT62">
         <v>1.38</v>
@@ -12768,7 +12780,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12858,7 +12870,7 @@
         <v>0.5</v>
       </c>
       <c r="AT63">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU63">
         <v>1.53</v>
@@ -12959,7 +12971,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13428,7 +13440,7 @@
         <v>2.71</v>
       </c>
       <c r="AS66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>2.78</v>
@@ -13532,7 +13544,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13619,7 +13631,7 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT67">
         <v>1.75</v>
@@ -13723,7 +13735,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13813,7 +13825,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14004,7 +14016,7 @@
         <v>0.43</v>
       </c>
       <c r="AT69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU69">
         <v>1.36</v>
@@ -14577,7 +14589,7 @@
         <v>2.13</v>
       </c>
       <c r="AT72">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AU72">
         <v>2.08</v>
@@ -14678,7 +14690,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14765,7 +14777,7 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT73">
         <v>1.38</v>
@@ -14869,7 +14881,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15060,7 +15072,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15251,7 +15263,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -16105,7 +16117,7 @@
         <v>2.13</v>
       </c>
       <c r="AT80">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU80">
         <v>2.11</v>
@@ -16206,7 +16218,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16539,6 +16551,579 @@
       </c>
       <c r="BK82">
         <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5139339</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45088.35416666666</v>
+      </c>
+      <c r="F83">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>76</v>
+      </c>
+      <c r="P83" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>10</v>
+      </c>
+      <c r="S83">
+        <v>14</v>
+      </c>
+      <c r="T83">
+        <v>6.5</v>
+      </c>
+      <c r="U83">
+        <v>2.2</v>
+      </c>
+      <c r="V83">
+        <v>2</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>2.88</v>
+      </c>
+      <c r="Y83">
+        <v>2.88</v>
+      </c>
+      <c r="Z83">
+        <v>1.36</v>
+      </c>
+      <c r="AA83">
+        <v>7.5</v>
+      </c>
+      <c r="AB83">
+        <v>1.07</v>
+      </c>
+      <c r="AC83">
+        <v>4.75</v>
+      </c>
+      <c r="AD83">
+        <v>4</v>
+      </c>
+      <c r="AE83">
+        <v>1.53</v>
+      </c>
+      <c r="AF83">
+        <v>1.03</v>
+      </c>
+      <c r="AG83">
+        <v>10</v>
+      </c>
+      <c r="AH83">
+        <v>1.25</v>
+      </c>
+      <c r="AI83">
+        <v>3.5</v>
+      </c>
+      <c r="AJ83">
+        <v>1.75</v>
+      </c>
+      <c r="AK83">
+        <v>1.95</v>
+      </c>
+      <c r="AL83">
+        <v>2.55</v>
+      </c>
+      <c r="AM83">
+        <v>1.49</v>
+      </c>
+      <c r="AN83">
+        <v>3</v>
+      </c>
+      <c r="AO83">
+        <v>1.13</v>
+      </c>
+      <c r="AP83">
+        <v>1.05</v>
+      </c>
+      <c r="AQ83">
+        <v>0.5</v>
+      </c>
+      <c r="AR83">
+        <v>1.14</v>
+      </c>
+      <c r="AS83">
+        <v>0.44</v>
+      </c>
+      <c r="AT83">
+        <v>1.38</v>
+      </c>
+      <c r="AU83">
+        <v>1.28</v>
+      </c>
+      <c r="AV83">
+        <v>1.55</v>
+      </c>
+      <c r="AW83">
+        <v>2.83</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>4</v>
+      </c>
+      <c r="BH83">
+        <v>3</v>
+      </c>
+      <c r="BI83">
+        <v>15</v>
+      </c>
+      <c r="BJ83">
+        <v>3</v>
+      </c>
+      <c r="BK83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5139336</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45088.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>8</v>
+      </c>
+      <c r="T84">
+        <v>1.8</v>
+      </c>
+      <c r="U84">
+        <v>2.3</v>
+      </c>
+      <c r="V84">
+        <v>8.5</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>2.88</v>
+      </c>
+      <c r="Y84">
+        <v>2.88</v>
+      </c>
+      <c r="Z84">
+        <v>1.36</v>
+      </c>
+      <c r="AA84">
+        <v>7</v>
+      </c>
+      <c r="AB84">
+        <v>1.07</v>
+      </c>
+      <c r="AC84">
+        <v>1.23</v>
+      </c>
+      <c r="AD84">
+        <v>5.25</v>
+      </c>
+      <c r="AE84">
+        <v>9.75</v>
+      </c>
+      <c r="AF84">
+        <v>1.03</v>
+      </c>
+      <c r="AG84">
+        <v>10</v>
+      </c>
+      <c r="AH84">
+        <v>1.29</v>
+      </c>
+      <c r="AI84">
+        <v>3.24</v>
+      </c>
+      <c r="AJ84">
+        <v>1.57</v>
+      </c>
+      <c r="AK84">
+        <v>2.25</v>
+      </c>
+      <c r="AL84">
+        <v>2.1</v>
+      </c>
+      <c r="AM84">
+        <v>1.7</v>
+      </c>
+      <c r="AN84">
+        <v>1.05</v>
+      </c>
+      <c r="AO84">
+        <v>1.18</v>
+      </c>
+      <c r="AP84">
+        <v>3</v>
+      </c>
+      <c r="AQ84">
+        <v>2.67</v>
+      </c>
+      <c r="AR84">
+        <v>2.33</v>
+      </c>
+      <c r="AS84">
+        <v>2.71</v>
+      </c>
+      <c r="AT84">
+        <v>2.1</v>
+      </c>
+      <c r="AU84">
+        <v>1.7</v>
+      </c>
+      <c r="AV84">
+        <v>1.42</v>
+      </c>
+      <c r="AW84">
+        <v>3.12</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>9</v>
+      </c>
+      <c r="BG84">
+        <v>3</v>
+      </c>
+      <c r="BH84">
+        <v>8</v>
+      </c>
+      <c r="BI84">
+        <v>6</v>
+      </c>
+      <c r="BJ84">
+        <v>17</v>
+      </c>
+      <c r="BK84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5139340</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45088.54166666666</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>124</v>
+      </c>
+      <c r="P85" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>6</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>2.05</v>
+      </c>
+      <c r="V85">
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>2.75</v>
+      </c>
+      <c r="Y85">
+        <v>3</v>
+      </c>
+      <c r="Z85">
+        <v>1.33</v>
+      </c>
+      <c r="AA85">
+        <v>7.5</v>
+      </c>
+      <c r="AB85">
+        <v>1.06</v>
+      </c>
+      <c r="AC85">
+        <v>1.98</v>
+      </c>
+      <c r="AD85">
+        <v>3.1</v>
+      </c>
+      <c r="AE85">
+        <v>3.3</v>
+      </c>
+      <c r="AF85">
+        <v>1.04</v>
+      </c>
+      <c r="AG85">
+        <v>8.5</v>
+      </c>
+      <c r="AH85">
+        <v>1.3</v>
+      </c>
+      <c r="AI85">
+        <v>3.2</v>
+      </c>
+      <c r="AJ85">
+        <v>2.07</v>
+      </c>
+      <c r="AK85">
+        <v>1.67</v>
+      </c>
+      <c r="AL85">
+        <v>1.85</v>
+      </c>
+      <c r="AM85">
+        <v>1.91</v>
+      </c>
+      <c r="AN85">
+        <v>1.29</v>
+      </c>
+      <c r="AO85">
+        <v>1.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.67</v>
+      </c>
+      <c r="AQ85">
+        <v>0.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.29</v>
+      </c>
+      <c r="AS85">
+        <v>1</v>
+      </c>
+      <c r="AT85">
+        <v>1.13</v>
+      </c>
+      <c r="AU85">
+        <v>1.42</v>
+      </c>
+      <c r="AV85">
+        <v>1.42</v>
+      </c>
+      <c r="AW85">
+        <v>2.84</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>3</v>
+      </c>
+      <c r="BG85">
+        <v>3</v>
+      </c>
+      <c r="BH85">
+        <v>7</v>
+      </c>
+      <c r="BI85">
+        <v>7</v>
+      </c>
+      <c r="BJ85">
+        <v>10</v>
+      </c>
+      <c r="BK85">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -17108,22 +17108,22 @@
         <v>0</v>
       </c>
       <c r="BF85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI85">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BJ85">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK85">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,12 @@
     <t>['33', '62']</t>
   </si>
   <si>
+    <t>['11', '49', '55']</t>
+  </si>
+  <si>
+    <t>['14', '60']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -524,6 +530,12 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['12', '81', '90']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1231,7 @@
         <v>2.13</v>
       </c>
       <c r="AT2">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1407,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1598,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT4">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1792,7 +1804,7 @@
         <v>2.71</v>
       </c>
       <c r="AT5">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1980,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT6">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2174,7 +2186,7 @@
         <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU7">
         <v>1.84</v>
@@ -2466,7 +2478,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2744,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT10">
         <v>1.75</v>
@@ -2848,7 +2860,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2938,7 +2950,7 @@
         <v>0.9</v>
       </c>
       <c r="AT11">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3039,7 +3051,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3230,7 +3242,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3317,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
         <v>2.78</v>
@@ -3421,7 +3433,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3508,10 +3520,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT14">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3612,7 +3624,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3702,7 +3714,7 @@
         <v>0.44</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>1.55</v>
@@ -3890,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT16">
         <v>1.38</v>
@@ -3994,7 +4006,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4272,10 +4284,10 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT18">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU18">
         <v>1.89</v>
@@ -4466,7 +4478,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4567,7 +4579,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4949,7 +4961,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5039,7 +5051,7 @@
         <v>0.44</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5140,7 +5152,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5227,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT23">
         <v>2.78</v>
@@ -5713,7 +5725,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5800,7 +5812,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
         <v>2.1</v>
@@ -5904,7 +5916,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -5991,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT27">
         <v>2.1</v>
@@ -6095,7 +6107,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6185,7 +6197,7 @@
         <v>2.71</v>
       </c>
       <c r="AT28">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>1.84</v>
@@ -6286,7 +6298,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6373,10 +6385,10 @@
         <v>1.67</v>
       </c>
       <c r="AS29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU29">
         <v>0.98</v>
@@ -6567,7 +6579,7 @@
         <v>2.13</v>
       </c>
       <c r="AT30">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -6946,7 +6958,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT32">
         <v>2.1</v>
@@ -7140,7 +7152,7 @@
         <v>0.9</v>
       </c>
       <c r="AT33">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -7241,7 +7253,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7328,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT34">
         <v>2.1</v>
@@ -7432,7 +7444,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7814,7 +7826,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8005,7 +8017,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8283,10 +8295,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT39">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.48</v>
@@ -8387,7 +8399,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8578,7 +8590,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8665,10 +8677,10 @@
         <v>0.6</v>
       </c>
       <c r="AS41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT41">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -8769,7 +8781,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8859,7 +8871,7 @@
         <v>0.44</v>
       </c>
       <c r="AT42">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -8960,7 +8972,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9047,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT43">
         <v>1.75</v>
@@ -9151,7 +9163,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9238,7 +9250,7 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT44">
         <v>2.78</v>
@@ -9342,7 +9354,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9623,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>1.59</v>
@@ -9724,7 +9736,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9915,7 +9927,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10002,7 +10014,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT48">
         <v>2.78</v>
@@ -10297,7 +10309,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10488,7 +10500,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10679,7 +10691,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10766,7 +10778,7 @@
         <v>0.75</v>
       </c>
       <c r="AS52">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT52">
         <v>1.38</v>
@@ -10870,7 +10882,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -10960,7 +10972,7 @@
         <v>2.13</v>
       </c>
       <c r="AT53">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11061,7 +11073,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11151,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11252,7 +11264,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11339,7 +11351,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT55">
         <v>1.13</v>
@@ -11443,7 +11455,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11533,7 +11545,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>1.42</v>
@@ -11634,7 +11646,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11912,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT58">
         <v>1.13</v>
@@ -12016,7 +12028,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12103,7 +12115,7 @@
         <v>2.6</v>
       </c>
       <c r="AS59">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT59">
         <v>2.78</v>
@@ -12398,7 +12410,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12589,7 +12601,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12679,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AT62">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -12780,7 +12792,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12867,7 +12879,7 @@
         <v>2.57</v>
       </c>
       <c r="AS63">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT63">
         <v>2.1</v>
@@ -12971,7 +12983,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13058,7 +13070,7 @@
         <v>2.29</v>
       </c>
       <c r="AS64">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT64">
         <v>2.1</v>
@@ -13249,10 +13261,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT65">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13544,7 +13556,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13735,7 +13747,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14013,7 +14025,7 @@
         <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
         <v>1.38</v>
@@ -14395,7 +14407,7 @@
         <v>2.17</v>
       </c>
       <c r="AS71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT71">
         <v>1.75</v>
@@ -14690,7 +14702,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14780,7 +14792,7 @@
         <v>2.71</v>
       </c>
       <c r="AT73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -14881,7 +14893,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -14971,7 +14983,7 @@
         <v>0.9</v>
       </c>
       <c r="AT74">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU74">
         <v>1.18</v>
@@ -15072,7 +15084,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15159,10 +15171,10 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU75">
         <v>1.74</v>
@@ -15263,7 +15275,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15350,7 +15362,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT76">
         <v>2.1</v>
@@ -15544,7 +15556,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>1.39</v>
@@ -15732,10 +15744,10 @@
         <v>0.71</v>
       </c>
       <c r="AS78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT78">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU78">
         <v>1.15</v>
@@ -15923,10 +15935,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AT79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU79">
         <v>1.32</v>
@@ -16218,7 +16230,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16600,7 +16612,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16791,7 +16803,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17124,6 +17136,770 @@
       </c>
       <c r="BK85">
         <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5139341</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F86">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>125</v>
+      </c>
+      <c r="P86" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>13</v>
+      </c>
+      <c r="S86">
+        <v>17</v>
+      </c>
+      <c r="T86">
+        <v>2.63</v>
+      </c>
+      <c r="U86">
+        <v>2.2</v>
+      </c>
+      <c r="V86">
+        <v>3.6</v>
+      </c>
+      <c r="W86">
+        <v>1.33</v>
+      </c>
+      <c r="X86">
+        <v>3</v>
+      </c>
+      <c r="Y86">
+        <v>2.5</v>
+      </c>
+      <c r="Z86">
+        <v>1.46</v>
+      </c>
+      <c r="AA86">
+        <v>6</v>
+      </c>
+      <c r="AB86">
+        <v>1.09</v>
+      </c>
+      <c r="AC86">
+        <v>2.05</v>
+      </c>
+      <c r="AD86">
+        <v>3.5</v>
+      </c>
+      <c r="AE86">
+        <v>3.3</v>
+      </c>
+      <c r="AF86">
+        <v>1.04</v>
+      </c>
+      <c r="AG86">
+        <v>12.75</v>
+      </c>
+      <c r="AH86">
+        <v>1.24</v>
+      </c>
+      <c r="AI86">
+        <v>3.6</v>
+      </c>
+      <c r="AJ86">
+        <v>1.75</v>
+      </c>
+      <c r="AK86">
+        <v>2</v>
+      </c>
+      <c r="AL86">
+        <v>1.65</v>
+      </c>
+      <c r="AM86">
+        <v>2.18</v>
+      </c>
+      <c r="AN86">
+        <v>1.29</v>
+      </c>
+      <c r="AO86">
+        <v>1.25</v>
+      </c>
+      <c r="AP86">
+        <v>1.67</v>
+      </c>
+      <c r="AQ86">
+        <v>0.5</v>
+      </c>
+      <c r="AR86">
+        <v>1.25</v>
+      </c>
+      <c r="AS86">
+        <v>0.78</v>
+      </c>
+      <c r="AT86">
+        <v>1.11</v>
+      </c>
+      <c r="AU86">
+        <v>1.54</v>
+      </c>
+      <c r="AV86">
+        <v>1.23</v>
+      </c>
+      <c r="AW86">
+        <v>2.77</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>10</v>
+      </c>
+      <c r="BG86">
+        <v>9</v>
+      </c>
+      <c r="BH86">
+        <v>3</v>
+      </c>
+      <c r="BI86">
+        <v>21</v>
+      </c>
+      <c r="BJ86">
+        <v>13</v>
+      </c>
+      <c r="BK86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5139342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45104.54166666666</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>126</v>
+      </c>
+      <c r="P87" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q87">
+        <v>8</v>
+      </c>
+      <c r="R87">
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <v>14</v>
+      </c>
+      <c r="T87">
+        <v>2.88</v>
+      </c>
+      <c r="U87">
+        <v>2.1</v>
+      </c>
+      <c r="V87">
+        <v>3.5</v>
+      </c>
+      <c r="W87">
+        <v>1.38</v>
+      </c>
+      <c r="X87">
+        <v>2.8</v>
+      </c>
+      <c r="Y87">
+        <v>2.75</v>
+      </c>
+      <c r="Z87">
+        <v>1.39</v>
+      </c>
+      <c r="AA87">
+        <v>7</v>
+      </c>
+      <c r="AB87">
+        <v>1.06</v>
+      </c>
+      <c r="AC87">
+        <v>2.25</v>
+      </c>
+      <c r="AD87">
+        <v>3.4</v>
+      </c>
+      <c r="AE87">
+        <v>2.95</v>
+      </c>
+      <c r="AF87">
+        <v>1.05</v>
+      </c>
+      <c r="AG87">
+        <v>11</v>
+      </c>
+      <c r="AH87">
+        <v>1.3</v>
+      </c>
+      <c r="AI87">
+        <v>3.13</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.75</v>
+      </c>
+      <c r="AL87">
+        <v>1.78</v>
+      </c>
+      <c r="AM87">
+        <v>1.99</v>
+      </c>
+      <c r="AN87">
+        <v>1.33</v>
+      </c>
+      <c r="AO87">
+        <v>1.25</v>
+      </c>
+      <c r="AP87">
+        <v>1.55</v>
+      </c>
+      <c r="AQ87">
+        <v>0.88</v>
+      </c>
+      <c r="AR87">
+        <v>1.86</v>
+      </c>
+      <c r="AS87">
+        <v>0.78</v>
+      </c>
+      <c r="AT87">
+        <v>2</v>
+      </c>
+      <c r="AU87">
+        <v>1.19</v>
+      </c>
+      <c r="AV87">
+        <v>1.33</v>
+      </c>
+      <c r="AW87">
+        <v>2.52</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>5</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>5</v>
+      </c>
+      <c r="BI87">
+        <v>5</v>
+      </c>
+      <c r="BJ87">
+        <v>10</v>
+      </c>
+      <c r="BK87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5139343</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45104.58333333334</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q88">
+        <v>8</v>
+      </c>
+      <c r="R88">
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <v>15</v>
+      </c>
+      <c r="T88">
+        <v>2.75</v>
+      </c>
+      <c r="U88">
+        <v>2.1</v>
+      </c>
+      <c r="V88">
+        <v>3.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>2.75</v>
+      </c>
+      <c r="Y88">
+        <v>2.85</v>
+      </c>
+      <c r="Z88">
+        <v>1.37</v>
+      </c>
+      <c r="AA88">
+        <v>7.3</v>
+      </c>
+      <c r="AB88">
+        <v>1.06</v>
+      </c>
+      <c r="AC88">
+        <v>2.05</v>
+      </c>
+      <c r="AD88">
+        <v>3.5</v>
+      </c>
+      <c r="AE88">
+        <v>3.25</v>
+      </c>
+      <c r="AF88">
+        <v>1.05</v>
+      </c>
+      <c r="AG88">
+        <v>10.25</v>
+      </c>
+      <c r="AH88">
+        <v>1.36</v>
+      </c>
+      <c r="AI88">
+        <v>3.02</v>
+      </c>
+      <c r="AJ88">
+        <v>2.05</v>
+      </c>
+      <c r="AK88">
+        <v>1.72</v>
+      </c>
+      <c r="AL88">
+        <v>1.85</v>
+      </c>
+      <c r="AM88">
+        <v>1.91</v>
+      </c>
+      <c r="AN88">
+        <v>1.29</v>
+      </c>
+      <c r="AO88">
+        <v>1.25</v>
+      </c>
+      <c r="AP88">
+        <v>1.67</v>
+      </c>
+      <c r="AQ88">
+        <v>0.89</v>
+      </c>
+      <c r="AR88">
+        <v>1.38</v>
+      </c>
+      <c r="AS88">
+        <v>0.9</v>
+      </c>
+      <c r="AT88">
+        <v>1.33</v>
+      </c>
+      <c r="AU88">
+        <v>1.63</v>
+      </c>
+      <c r="AV88">
+        <v>1.35</v>
+      </c>
+      <c r="AW88">
+        <v>2.98</v>
+      </c>
+      <c r="AX88">
+        <v>0</v>
+      </c>
+      <c r="AY88">
+        <v>0</v>
+      </c>
+      <c r="AZ88">
+        <v>0</v>
+      </c>
+      <c r="BA88">
+        <v>0</v>
+      </c>
+      <c r="BB88">
+        <v>0</v>
+      </c>
+      <c r="BC88">
+        <v>0</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>5</v>
+      </c>
+      <c r="BG88">
+        <v>7</v>
+      </c>
+      <c r="BH88">
+        <v>10</v>
+      </c>
+      <c r="BI88">
+        <v>5</v>
+      </c>
+      <c r="BJ88">
+        <v>15</v>
+      </c>
+      <c r="BK88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5139344</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45105.5</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>113</v>
+      </c>
+      <c r="P89" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>2.05</v>
+      </c>
+      <c r="U89">
+        <v>2.5</v>
+      </c>
+      <c r="V89">
+        <v>4.5</v>
+      </c>
+      <c r="W89">
+        <v>1.29</v>
+      </c>
+      <c r="X89">
+        <v>3.25</v>
+      </c>
+      <c r="Y89">
+        <v>2.5</v>
+      </c>
+      <c r="Z89">
+        <v>1.5</v>
+      </c>
+      <c r="AA89">
+        <v>6</v>
+      </c>
+      <c r="AB89">
+        <v>1.11</v>
+      </c>
+      <c r="AC89">
+        <v>1.73</v>
+      </c>
+      <c r="AD89">
+        <v>3.9</v>
+      </c>
+      <c r="AE89">
+        <v>3.7</v>
+      </c>
+      <c r="AF89">
+        <v>1.02</v>
+      </c>
+      <c r="AG89">
+        <v>19.75</v>
+      </c>
+      <c r="AH89">
+        <v>1.17</v>
+      </c>
+      <c r="AI89">
+        <v>4.4</v>
+      </c>
+      <c r="AJ89">
+        <v>1.56</v>
+      </c>
+      <c r="AK89">
+        <v>2.28</v>
+      </c>
+      <c r="AL89">
+        <v>1.61</v>
+      </c>
+      <c r="AM89">
+        <v>2.25</v>
+      </c>
+      <c r="AN89">
+        <v>1.17</v>
+      </c>
+      <c r="AO89">
+        <v>1.13</v>
+      </c>
+      <c r="AP89">
+        <v>2.25</v>
+      </c>
+      <c r="AQ89">
+        <v>0.43</v>
+      </c>
+      <c r="AR89">
+        <v>0.63</v>
+      </c>
+      <c r="AS89">
+        <v>0.5</v>
+      </c>
+      <c r="AT89">
+        <v>0.67</v>
+      </c>
+      <c r="AU89">
+        <v>1.38</v>
+      </c>
+      <c r="AV89">
+        <v>1.01</v>
+      </c>
+      <c r="AW89">
+        <v>2.39</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>0</v>
+      </c>
+      <c r="AZ89">
+        <v>0</v>
+      </c>
+      <c r="BA89">
+        <v>0</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>0</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>2</v>
+      </c>
+      <c r="BG89">
+        <v>2</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>3</v>
+      </c>
+      <c r="BJ89">
+        <v>2</v>
+      </c>
+      <c r="BK89">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -897,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -3332,7 +3332,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU13">
         <v>0.78</v>
@@ -4857,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
         <v>1.75</v>
@@ -5242,7 +5242,7 @@
         <v>0.78</v>
       </c>
       <c r="AT23">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU23">
         <v>1.89</v>
@@ -6194,7 +6194,7 @@
         <v>0.33</v>
       </c>
       <c r="AS28">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
         <v>0.67</v>
@@ -7534,7 +7534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -9253,7 +9253,7 @@
         <v>0.9</v>
       </c>
       <c r="AT44">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU44">
         <v>1.67</v>
@@ -10017,7 +10017,7 @@
         <v>0.78</v>
       </c>
       <c r="AT48">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU48">
         <v>1.43</v>
@@ -10205,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT49">
         <v>1.38</v>
@@ -12118,7 +12118,7 @@
         <v>0.78</v>
       </c>
       <c r="AT59">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12500,7 +12500,7 @@
         <v>0.44</v>
       </c>
       <c r="AT61">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -13455,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU66">
         <v>1.46</v>
@@ -14789,7 +14789,7 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT73">
         <v>1.33</v>
@@ -16320,7 +16320,7 @@
         <v>0.9</v>
       </c>
       <c r="AT81">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16890,7 +16890,7 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT84">
         <v>2.1</v>
@@ -17502,22 +17502,22 @@
         <v>0</v>
       </c>
       <c r="BF87">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH87">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ87">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BK87">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -17699,16 +17699,16 @@
         <v>7</v>
       </c>
       <c r="BH88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI88">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BJ88">
+        <v>16</v>
+      </c>
+      <c r="BK88">
         <v>15</v>
-      </c>
-      <c r="BK88">
-        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:63">
@@ -17761,13 +17761,13 @@
         <v>173</v>
       </c>
       <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89">
         <v>4</v>
       </c>
-      <c r="R89">
-        <v>1</v>
-      </c>
       <c r="S89">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T89">
         <v>2.05</v>
@@ -17884,22 +17884,213 @@
         <v>0</v>
       </c>
       <c r="BF89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG89">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI89">
+        <v>5</v>
+      </c>
+      <c r="BJ89">
+        <v>12</v>
+      </c>
+      <c r="BK89">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5139345</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45105.54166666666</v>
+      </c>
+      <c r="F90">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>68</v>
+      </c>
+      <c r="H90" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>7</v>
+      </c>
+      <c r="S90">
+        <v>14</v>
+      </c>
+      <c r="T90">
+        <v>3.4</v>
+      </c>
+      <c r="U90">
+        <v>2.1</v>
+      </c>
+      <c r="V90">
         <v>3</v>
       </c>
-      <c r="BJ89">
-        <v>2</v>
-      </c>
-      <c r="BK89">
+      <c r="W90">
+        <v>1.38</v>
+      </c>
+      <c r="X90">
+        <v>2.8</v>
+      </c>
+      <c r="Y90">
+        <v>2.75</v>
+      </c>
+      <c r="Z90">
+        <v>1.39</v>
+      </c>
+      <c r="AA90">
+        <v>7</v>
+      </c>
+      <c r="AB90">
+        <v>1.06</v>
+      </c>
+      <c r="AC90">
+        <v>2.85</v>
+      </c>
+      <c r="AD90">
+        <v>3.1</v>
+      </c>
+      <c r="AE90">
+        <v>2.32</v>
+      </c>
+      <c r="AF90">
+        <v>1.05</v>
+      </c>
+      <c r="AG90">
+        <v>10.5</v>
+      </c>
+      <c r="AH90">
+        <v>1.33</v>
+      </c>
+      <c r="AI90">
+        <v>3.2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.96</v>
+      </c>
+      <c r="AK90">
+        <v>1.76</v>
+      </c>
+      <c r="AL90">
+        <v>1.77</v>
+      </c>
+      <c r="AM90">
+        <v>2</v>
+      </c>
+      <c r="AN90">
+        <v>1.53</v>
+      </c>
+      <c r="AO90">
+        <v>1.25</v>
+      </c>
+      <c r="AP90">
+        <v>1.36</v>
+      </c>
+      <c r="AQ90">
+        <v>2.71</v>
+      </c>
+      <c r="AR90">
+        <v>2.78</v>
+      </c>
+      <c r="AS90">
+        <v>2.5</v>
+      </c>
+      <c r="AT90">
+        <v>2.6</v>
+      </c>
+      <c r="AU90">
+        <v>1.75</v>
+      </c>
+      <c r="AV90">
+        <v>2.11</v>
+      </c>
+      <c r="AW90">
+        <v>3.86</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>0</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BC90">
+        <v>0</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
         <v>5</v>
+      </c>
+      <c r="BG90">
+        <v>8</v>
+      </c>
+      <c r="BH90">
+        <v>9</v>
+      </c>
+      <c r="BI90">
+        <v>2</v>
+      </c>
+      <c r="BJ90">
+        <v>14</v>
+      </c>
+      <c r="BK90">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,21 @@
     <t>['14', '60']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['20', '54', '84']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['3', '73', '79']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -536,6 +551,15 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['84', '87']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT2">
         <v>0.67</v>
@@ -1613,7 +1637,7 @@
         <v>0.9</v>
       </c>
       <c r="AT4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1801,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -2183,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT7">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>1.84</v>
@@ -2374,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2478,7 +2502,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2565,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2759,7 +2783,7 @@
         <v>0.9</v>
       </c>
       <c r="AT10">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU10">
         <v>1.55</v>
@@ -2860,7 +2884,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2947,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT11">
         <v>1.33</v>
@@ -3051,7 +3075,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3242,7 +3266,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3433,7 +3457,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3624,7 +3648,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3711,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT15">
         <v>1.33</v>
@@ -3905,7 +3929,7 @@
         <v>0.78</v>
       </c>
       <c r="AT16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4006,7 +4030,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4093,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT17">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4475,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4579,7 +4603,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4666,10 +4690,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT20">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU20">
         <v>1.59</v>
@@ -4857,10 +4881,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT21">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -4961,7 +4985,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5048,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT22">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5152,7 +5176,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5430,10 +5454,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5621,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
+        <v>1.2</v>
+      </c>
+      <c r="AT25">
         <v>1.33</v>
-      </c>
-      <c r="AT25">
-        <v>1.38</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5725,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5916,7 +5940,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6006,7 +6030,7 @@
         <v>0.9</v>
       </c>
       <c r="AT27">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU27">
         <v>1.91</v>
@@ -6107,7 +6131,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6194,7 +6218,7 @@
         <v>0.33</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT28">
         <v>0.67</v>
@@ -6298,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6576,7 +6600,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -6770,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7149,10 +7173,10 @@
         <v>0.75</v>
       </c>
       <c r="AS33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.17</v>
@@ -7253,7 +7277,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7343,7 +7367,7 @@
         <v>0.78</v>
       </c>
       <c r="AT34">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU34">
         <v>0.9</v>
@@ -7444,7 +7468,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7531,7 +7555,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT35">
         <v>2.6</v>
@@ -7725,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU36">
         <v>1.25</v>
@@ -7826,7 +7850,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7913,10 +7937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS37">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8017,7 +8041,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8104,7 +8128,7 @@
         <v>2.33</v>
       </c>
       <c r="AS38">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT38">
         <v>2.1</v>
@@ -8399,7 +8423,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8486,10 +8510,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT40">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU40">
         <v>1.08</v>
@@ -8590,7 +8614,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8680,7 +8704,7 @@
         <v>0.78</v>
       </c>
       <c r="AT41">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -8781,7 +8805,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8868,7 +8892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT42">
         <v>2</v>
@@ -8972,7 +8996,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9062,7 +9086,7 @@
         <v>0.5</v>
       </c>
       <c r="AT43">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9163,7 +9187,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9354,7 +9378,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9441,7 +9465,7 @@
         <v>2.5</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT45">
         <v>2.1</v>
@@ -9736,7 +9760,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9823,10 +9847,10 @@
         <v>2.4</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT47">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU47">
         <v>1.23</v>
@@ -9927,7 +9951,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10205,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT49">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.82</v>
@@ -10309,7 +10333,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10396,10 +10420,10 @@
         <v>2.25</v>
       </c>
       <c r="AS50">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU50">
         <v>1.16</v>
@@ -10500,7 +10524,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10587,7 +10611,7 @@
         <v>2.6</v>
       </c>
       <c r="AS51">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT51">
         <v>2.1</v>
@@ -10691,7 +10715,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10781,7 +10805,7 @@
         <v>0.78</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>1.59</v>
@@ -10882,7 +10906,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -10969,7 +10993,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11073,7 +11097,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11264,7 +11288,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11354,7 +11378,7 @@
         <v>0.5</v>
       </c>
       <c r="AT55">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11455,7 +11479,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11542,7 +11566,7 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
         <v>0.67</v>
@@ -11646,7 +11670,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11733,10 +11757,10 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT57">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11927,7 +11951,7 @@
         <v>0.9</v>
       </c>
       <c r="AT58">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12028,7 +12052,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12410,7 +12434,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12497,7 +12521,7 @@
         <v>2.67</v>
       </c>
       <c r="AS61">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT61">
         <v>2.6</v>
@@ -12601,7 +12625,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12792,7 +12816,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12882,7 +12906,7 @@
         <v>0.78</v>
       </c>
       <c r="AT63">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU63">
         <v>1.53</v>
@@ -12983,7 +13007,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13556,7 +13580,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13643,10 +13667,10 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -13747,7 +13771,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13834,10 +13858,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT68">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14028,7 +14052,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU69">
         <v>1.36</v>
@@ -14216,7 +14240,7 @@
         <v>2.13</v>
       </c>
       <c r="AS70">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT70">
         <v>2.1</v>
@@ -14410,7 +14434,7 @@
         <v>0.78</v>
       </c>
       <c r="AT71">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU71">
         <v>1.22</v>
@@ -14598,10 +14622,10 @@
         <v>2.63</v>
       </c>
       <c r="AS72">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT72">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU72">
         <v>2.08</v>
@@ -14702,7 +14726,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14789,7 +14813,7 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT73">
         <v>1.33</v>
@@ -14893,7 +14917,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -14980,7 +15004,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT74">
         <v>0.67</v>
@@ -15084,7 +15108,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15174,7 +15198,7 @@
         <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.74</v>
@@ -15275,7 +15299,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15553,7 +15577,7 @@
         <v>2.17</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT77">
         <v>2</v>
@@ -15938,7 +15962,7 @@
         <v>0.5</v>
       </c>
       <c r="AT79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU79">
         <v>1.32</v>
@@ -16126,10 +16150,10 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT80">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>2.11</v>
@@ -16230,7 +16254,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16317,7 +16341,7 @@
         <v>2.75</v>
       </c>
       <c r="AS81">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT81">
         <v>2.6</v>
@@ -16508,10 +16532,10 @@
         <v>2</v>
       </c>
       <c r="AS82">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU82">
         <v>1.35</v>
@@ -16612,7 +16636,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16699,10 +16723,10 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AT83">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.28</v>
@@ -16803,7 +16827,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -16890,10 +16914,10 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT84">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU84">
         <v>1.7</v>
@@ -17084,7 +17108,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17275,7 +17299,7 @@
         <v>0.78</v>
       </c>
       <c r="AT86">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.54</v>
@@ -17376,7 +17400,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17758,7 +17782,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18036,7 +18060,7 @@
         <v>2.78</v>
       </c>
       <c r="AS90">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT90">
         <v>2.6</v>
@@ -18075,22 +18099,977 @@
         <v>0</v>
       </c>
       <c r="BF90">
+        <v>3</v>
+      </c>
+      <c r="BG90">
         <v>5</v>
       </c>
-      <c r="BG90">
+      <c r="BH90">
+        <v>13</v>
+      </c>
+      <c r="BI90">
+        <v>6</v>
+      </c>
+      <c r="BJ90">
+        <v>16</v>
+      </c>
+      <c r="BK90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5139346</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45107.58333333334</v>
+      </c>
+      <c r="F91">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>127</v>
+      </c>
+      <c r="P91" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+      <c r="S91">
         <v>8</v>
       </c>
-      <c r="BH90">
+      <c r="T91">
+        <v>6.5</v>
+      </c>
+      <c r="U91">
+        <v>2.38</v>
+      </c>
+      <c r="V91">
+        <v>1.83</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>6.19</v>
+      </c>
+      <c r="AD91">
+        <v>3.71</v>
+      </c>
+      <c r="AE91">
+        <v>1.39</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>1.64</v>
+      </c>
+      <c r="AK91">
+        <v>1.91</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0.9</v>
+      </c>
+      <c r="AR91">
+        <v>1.38</v>
+      </c>
+      <c r="AS91">
+        <v>0.91</v>
+      </c>
+      <c r="AT91">
+        <v>1.33</v>
+      </c>
+      <c r="AU91">
+        <v>1.09</v>
+      </c>
+      <c r="AV91">
+        <v>1.64</v>
+      </c>
+      <c r="AW91">
+        <v>2.73</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>0</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>3</v>
+      </c>
+      <c r="BG91">
+        <v>5</v>
+      </c>
+      <c r="BH91">
+        <v>2</v>
+      </c>
+      <c r="BI91">
+        <v>6</v>
+      </c>
+      <c r="BJ91">
+        <v>5</v>
+      </c>
+      <c r="BK91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5139347</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45108.45833333334</v>
+      </c>
+      <c r="F92">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>128</v>
+      </c>
+      <c r="P92" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q92">
+        <v>7</v>
+      </c>
+      <c r="R92">
+        <v>7</v>
+      </c>
+      <c r="S92">
+        <v>14</v>
+      </c>
+      <c r="T92">
+        <v>4.33</v>
+      </c>
+      <c r="U92">
+        <v>2.2</v>
+      </c>
+      <c r="V92">
+        <v>2.3</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>3.6</v>
+      </c>
+      <c r="AD92">
+        <v>3.3</v>
+      </c>
+      <c r="AE92">
+        <v>1.85</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>1.83</v>
+      </c>
+      <c r="AK92">
+        <v>1.88</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0.44</v>
+      </c>
+      <c r="AR92">
+        <v>1.75</v>
+      </c>
+      <c r="AS92">
+        <v>0.5</v>
+      </c>
+      <c r="AT92">
+        <v>1.67</v>
+      </c>
+      <c r="AU92">
+        <v>1.2</v>
+      </c>
+      <c r="AV92">
+        <v>1.81</v>
+      </c>
+      <c r="AW92">
+        <v>3.01</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>5</v>
+      </c>
+      <c r="BG92">
+        <v>11</v>
+      </c>
+      <c r="BH92">
         <v>9</v>
       </c>
-      <c r="BI90">
-        <v>2</v>
-      </c>
-      <c r="BJ90">
+      <c r="BI92">
+        <v>9</v>
+      </c>
+      <c r="BJ92">
         <v>14</v>
       </c>
-      <c r="BK90">
+      <c r="BK92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5139348</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45108.5625</v>
+      </c>
+      <c r="F93">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>129</v>
+      </c>
+      <c r="P93" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93">
+        <v>5</v>
+      </c>
+      <c r="T93">
+        <v>1.73</v>
+      </c>
+      <c r="U93">
+        <v>2.4</v>
+      </c>
+      <c r="V93">
+        <v>8.5</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>1.33</v>
+      </c>
+      <c r="AD93">
+        <v>4.75</v>
+      </c>
+      <c r="AE93">
+        <v>8.1</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>1.88</v>
+      </c>
+      <c r="AK93">
+        <v>1.93</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>2.5</v>
+      </c>
+      <c r="AR93">
+        <v>1.11</v>
+      </c>
+      <c r="AS93">
+        <v>2.56</v>
+      </c>
+      <c r="AT93">
+        <v>1</v>
+      </c>
+      <c r="AU93">
+        <v>1.75</v>
+      </c>
+      <c r="AV93">
+        <v>1.47</v>
+      </c>
+      <c r="AW93">
+        <v>3.22</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>0</v>
+      </c>
+      <c r="BB93">
+        <v>0</v>
+      </c>
+      <c r="BC93">
+        <v>0</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>7</v>
+      </c>
+      <c r="BG93">
+        <v>4</v>
+      </c>
+      <c r="BH93">
+        <v>8</v>
+      </c>
+      <c r="BI93">
+        <v>5</v>
+      </c>
+      <c r="BJ93">
+        <v>15</v>
+      </c>
+      <c r="BK93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5139349</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45109.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>66</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>130</v>
+      </c>
+      <c r="P94" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q94">
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>2.1</v>
+      </c>
+      <c r="U94">
+        <v>2.25</v>
+      </c>
+      <c r="V94">
+        <v>5</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>1.56</v>
+      </c>
+      <c r="AD94">
+        <v>3.7</v>
+      </c>
+      <c r="AE94">
+        <v>4.7</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>1.88</v>
+      </c>
+      <c r="AK94">
+        <v>1.94</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>1.33</v>
+      </c>
+      <c r="AR94">
+        <v>2.1</v>
+      </c>
+      <c r="AS94">
+        <v>1.2</v>
+      </c>
+      <c r="AT94">
+        <v>2.18</v>
+      </c>
+      <c r="AU94">
+        <v>1.51</v>
+      </c>
+      <c r="AV94">
+        <v>1.38</v>
+      </c>
+      <c r="AW94">
+        <v>2.89</v>
+      </c>
+      <c r="AX94">
+        <v>0</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BC94">
+        <v>0</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>7</v>
+      </c>
+      <c r="BG94">
+        <v>5</v>
+      </c>
+      <c r="BH94">
+        <v>6</v>
+      </c>
+      <c r="BI94">
+        <v>6</v>
+      </c>
+      <c r="BJ94">
+        <v>13</v>
+      </c>
+      <c r="BK94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5139350</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45109.54166666666</v>
+      </c>
+      <c r="F95">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" t="s">
+        <v>73</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>131</v>
+      </c>
+      <c r="P95" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q95">
+        <v>6</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>6</v>
+      </c>
+      <c r="T95">
+        <v>1.62</v>
+      </c>
+      <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>9</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>1.16</v>
+      </c>
+      <c r="AD95">
+        <v>6.2</v>
+      </c>
+      <c r="AE95">
         <v>10</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>1.48</v>
+      </c>
+      <c r="AK95">
+        <v>2.47</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+      <c r="AP95">
+        <v>0</v>
+      </c>
+      <c r="AQ95">
+        <v>2.13</v>
+      </c>
+      <c r="AR95">
+        <v>1.13</v>
+      </c>
+      <c r="AS95">
+        <v>2.22</v>
+      </c>
+      <c r="AT95">
+        <v>1</v>
+      </c>
+      <c r="AU95">
+        <v>2.05</v>
+      </c>
+      <c r="AV95">
+        <v>1.47</v>
+      </c>
+      <c r="AW95">
+        <v>3.52</v>
+      </c>
+      <c r="AX95">
+        <v>0</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>0</v>
+      </c>
+      <c r="BB95">
+        <v>0</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>13</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>15</v>
+      </c>
+      <c r="BI95">
+        <v>4</v>
+      </c>
+      <c r="BJ95">
+        <v>28</v>
+      </c>
+      <c r="BK95">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -921,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT10">
         <v>1.67</v>
@@ -3356,7 +3356,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU13">
         <v>0.78</v>
@@ -4308,7 +4308,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT18">
         <v>0.67</v>
@@ -5266,7 +5266,7 @@
         <v>0.78</v>
       </c>
       <c r="AT23">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU23">
         <v>1.89</v>
@@ -6027,7 +6027,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT27">
         <v>2.18</v>
@@ -6982,7 +6982,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT32">
         <v>2.1</v>
@@ -7558,7 +7558,7 @@
         <v>1.2</v>
       </c>
       <c r="AT35">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -9274,10 +9274,10 @@
         <v>2.33</v>
       </c>
       <c r="AS44">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT44">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU44">
         <v>1.67</v>
@@ -10041,7 +10041,7 @@
         <v>0.78</v>
       </c>
       <c r="AT48">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU48">
         <v>1.43</v>
@@ -11948,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12142,7 +12142,7 @@
         <v>0.78</v>
       </c>
       <c r="AT59">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU59">
         <v>1.62</v>
@@ -12524,7 +12524,7 @@
         <v>0.5</v>
       </c>
       <c r="AT61">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU61">
         <v>1.39</v>
@@ -13285,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT65">
         <v>2</v>
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU66">
         <v>1.46</v>
@@ -15195,7 +15195,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -16344,7 +16344,7 @@
         <v>0.91</v>
       </c>
       <c r="AT81">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -17678,7 +17678,7 @@
         <v>1.38</v>
       </c>
       <c r="AS88">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT88">
         <v>1.33</v>
@@ -18063,7 +18063,7 @@
         <v>2.56</v>
       </c>
       <c r="AT90">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AU90">
         <v>1.75</v>
@@ -19070,6 +19070,197 @@
       </c>
       <c r="BK95">
         <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5139351</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45114.54166666666</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>67</v>
+      </c>
+      <c r="H96" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>76</v>
+      </c>
+      <c r="P96" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q96">
+        <v>4</v>
+      </c>
+      <c r="R96">
+        <v>4</v>
+      </c>
+      <c r="S96">
+        <v>8</v>
+      </c>
+      <c r="T96">
+        <v>4.5</v>
+      </c>
+      <c r="U96">
+        <v>2.25</v>
+      </c>
+      <c r="V96">
+        <v>2.2</v>
+      </c>
+      <c r="W96">
+        <v>1.34</v>
+      </c>
+      <c r="X96">
+        <v>2.99</v>
+      </c>
+      <c r="Y96">
+        <v>2.62</v>
+      </c>
+      <c r="Z96">
+        <v>1.43</v>
+      </c>
+      <c r="AA96">
+        <v>6.35</v>
+      </c>
+      <c r="AB96">
+        <v>1.08</v>
+      </c>
+      <c r="AC96">
+        <v>4.8</v>
+      </c>
+      <c r="AD96">
+        <v>3.6</v>
+      </c>
+      <c r="AE96">
+        <v>1.57</v>
+      </c>
+      <c r="AF96">
+        <v>1.01</v>
+      </c>
+      <c r="AG96">
+        <v>9.9</v>
+      </c>
+      <c r="AH96">
+        <v>1.23</v>
+      </c>
+      <c r="AI96">
+        <v>3.65</v>
+      </c>
+      <c r="AJ96">
+        <v>1.8</v>
+      </c>
+      <c r="AK96">
+        <v>1.95</v>
+      </c>
+      <c r="AL96">
+        <v>1.8</v>
+      </c>
+      <c r="AM96">
+        <v>2.01</v>
+      </c>
+      <c r="AN96">
+        <v>2</v>
+      </c>
+      <c r="AO96">
+        <v>1.23</v>
+      </c>
+      <c r="AP96">
+        <v>1.17</v>
+      </c>
+      <c r="AQ96">
+        <v>0.9</v>
+      </c>
+      <c r="AR96">
+        <v>2.6</v>
+      </c>
+      <c r="AS96">
+        <v>0.91</v>
+      </c>
+      <c r="AT96">
+        <v>2.45</v>
+      </c>
+      <c r="AU96">
+        <v>1.64</v>
+      </c>
+      <c r="AV96">
+        <v>2.04</v>
+      </c>
+      <c r="AW96">
+        <v>3.68</v>
+      </c>
+      <c r="AX96">
+        <v>0</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>0</v>
+      </c>
+      <c r="BB96">
+        <v>0</v>
+      </c>
+      <c r="BC96">
+        <v>0</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>5</v>
+      </c>
+      <c r="BG96">
+        <v>4</v>
+      </c>
+      <c r="BH96">
+        <v>2</v>
+      </c>
+      <c r="BI96">
+        <v>2</v>
+      </c>
+      <c r="BJ96">
+        <v>7</v>
+      </c>
+      <c r="BK96">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Estonia Meistriliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,15 @@
     <t>['3', '73', '79']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['74', '76', '78']</t>
+  </si>
+  <si>
+    <t>['10', '33', '36']</t>
+  </si>
+  <si>
     <t>['42', '72']</t>
   </si>
   <si>
@@ -560,6 +569,12 @@
   </si>
   <si>
     <t>['84', '87']</t>
+  </si>
+  <si>
+    <t>['5', '8', '49', '86']</t>
+  </si>
+  <si>
+    <t>['34', '45+4', '88']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1825,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2398,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU8">
         <v>1.72</v>
@@ -2502,7 +2517,7 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2589,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT9">
         <v>2.18</v>
@@ -2783,7 +2798,7 @@
         <v>0.91</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU10">
         <v>1.55</v>
@@ -2884,7 +2899,7 @@
         <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -2974,7 +2989,7 @@
         <v>0.91</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3075,7 +3090,7 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3162,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT12">
         <v>2.1</v>
@@ -3266,7 +3281,7 @@
         <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3353,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT13">
         <v>2.45</v>
@@ -3457,7 +3472,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3547,7 +3562,7 @@
         <v>0.78</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU14">
         <v>2.35</v>
@@ -3648,7 +3663,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3735,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>1.55</v>
@@ -4030,7 +4045,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>9</v>
@@ -4120,7 +4135,7 @@
         <v>2.22</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU17">
         <v>1.75</v>
@@ -4603,7 +4618,7 @@
         <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4881,10 +4896,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU21">
         <v>1.66</v>
@@ -4985,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5072,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5176,7 +5191,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5457,7 +5472,7 @@
         <v>0.91</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU24">
         <v>1.29</v>
@@ -5749,7 +5764,7 @@
         <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -5836,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT26">
         <v>2.1</v>
@@ -5940,7 +5955,7 @@
         <v>76</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6131,7 +6146,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6218,7 +6233,7 @@
         <v>0.33</v>
       </c>
       <c r="AS28">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT28">
         <v>0.67</v>
@@ -6322,7 +6337,7 @@
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6412,7 +6427,7 @@
         <v>0.78</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>0.98</v>
@@ -6603,7 +6618,7 @@
         <v>2.22</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU30">
         <v>1.97</v>
@@ -6791,10 +6806,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7277,7 +7292,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7468,7 +7483,7 @@
         <v>96</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7746,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT36">
         <v>2.18</v>
@@ -7850,7 +7865,7 @@
         <v>98</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -7937,10 +7952,10 @@
         <v>0.33</v>
       </c>
       <c r="AS37">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8041,7 +8056,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>11</v>
@@ -8322,7 +8337,7 @@
         <v>0.78</v>
       </c>
       <c r="AT39">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU39">
         <v>1.48</v>
@@ -8423,7 +8438,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8614,7 +8629,7 @@
         <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8805,7 +8820,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -8892,10 +8907,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU42">
         <v>1.54</v>
@@ -8996,7 +9011,7 @@
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9083,10 +9098,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT43">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9187,7 +9202,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9378,7 +9393,7 @@
         <v>76</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9656,7 +9671,7 @@
         <v>0.25</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT46">
         <v>0.67</v>
@@ -9760,7 +9775,7 @@
         <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9951,7 +9966,7 @@
         <v>76</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -10229,7 +10244,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10333,7 +10348,7 @@
         <v>105</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10423,7 +10438,7 @@
         <v>0.91</v>
       </c>
       <c r="AT50">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU50">
         <v>1.16</v>
@@ -10524,7 +10539,7 @@
         <v>106</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10611,7 +10626,7 @@
         <v>2.6</v>
       </c>
       <c r="AS51">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT51">
         <v>2.1</v>
@@ -10715,7 +10730,7 @@
         <v>107</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>9</v>
@@ -10906,7 +10921,7 @@
         <v>108</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>12</v>
@@ -10996,7 +11011,7 @@
         <v>2.22</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11097,7 +11112,7 @@
         <v>76</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11184,10 +11199,10 @@
         <v>1.75</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU54">
         <v>1.7</v>
@@ -11288,7 +11303,7 @@
         <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11375,10 +11390,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11479,7 +11494,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11670,7 +11685,7 @@
         <v>76</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11951,7 +11966,7 @@
         <v>0.91</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12052,7 +12067,7 @@
         <v>76</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12330,7 +12345,7 @@
         <v>2.17</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT60">
         <v>2.1</v>
@@ -12434,7 +12449,7 @@
         <v>76</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12521,7 +12536,7 @@
         <v>2.67</v>
       </c>
       <c r="AS61">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT61">
         <v>2.45</v>
@@ -12625,7 +12640,7 @@
         <v>76</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12712,10 +12727,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU62">
         <v>1.51</v>
@@ -12816,7 +12831,7 @@
         <v>111</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13007,7 +13022,7 @@
         <v>112</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13288,7 +13303,7 @@
         <v>0.91</v>
       </c>
       <c r="AT65">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13476,7 +13491,7 @@
         <v>2.71</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT66">
         <v>2.45</v>
@@ -13580,7 +13595,7 @@
         <v>113</v>
       </c>
       <c r="P67" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13667,10 +13682,10 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU67">
         <v>1.27</v>
@@ -13771,7 +13786,7 @@
         <v>114</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -13861,7 +13876,7 @@
         <v>1.2</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU68">
         <v>1.38</v>
@@ -14049,7 +14064,7 @@
         <v>1.2</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT69">
         <v>1.33</v>
@@ -14434,7 +14449,7 @@
         <v>0.78</v>
       </c>
       <c r="AT71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU71">
         <v>1.22</v>
@@ -14726,7 +14741,7 @@
         <v>117</v>
       </c>
       <c r="P73" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14813,10 +14828,10 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU73">
         <v>1.75</v>
@@ -14917,7 +14932,7 @@
         <v>76</v>
       </c>
       <c r="P74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15108,7 +15123,7 @@
         <v>118</v>
       </c>
       <c r="P75" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15299,7 +15314,7 @@
         <v>76</v>
       </c>
       <c r="P76" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15580,7 +15595,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU77">
         <v>1.39</v>
@@ -15959,7 +15974,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT79">
         <v>1</v>
@@ -16254,7 +16269,7 @@
         <v>121</v>
       </c>
       <c r="P81" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16535,7 +16550,7 @@
         <v>1.2</v>
       </c>
       <c r="AT82">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU82">
         <v>1.35</v>
@@ -16636,7 +16651,7 @@
         <v>76</v>
       </c>
       <c r="P83" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16723,7 +16738,7 @@
         <v>1.14</v>
       </c>
       <c r="AS83">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -16827,7 +16842,7 @@
         <v>123</v>
       </c>
       <c r="P84" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -16914,7 +16929,7 @@
         <v>2.33</v>
       </c>
       <c r="AS84">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT84">
         <v>2.18</v>
@@ -17105,10 +17120,10 @@
         <v>1.29</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU85">
         <v>1.42</v>
@@ -17400,7 +17415,7 @@
         <v>126</v>
       </c>
       <c r="P87" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17490,7 +17505,7 @@
         <v>0.78</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU87">
         <v>1.19</v>
@@ -17681,7 +17696,7 @@
         <v>0.91</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU88">
         <v>1.63</v>
@@ -17782,7 +17797,7 @@
         <v>113</v>
       </c>
       <c r="P89" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17869,7 +17884,7 @@
         <v>0.63</v>
       </c>
       <c r="AS89">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AT89">
         <v>0.67</v>
@@ -18060,7 +18075,7 @@
         <v>2.78</v>
       </c>
       <c r="AS90">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT90">
         <v>2.45</v>
@@ -18164,7 +18179,7 @@
         <v>127</v>
       </c>
       <c r="P91" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18355,7 +18370,7 @@
         <v>128</v>
       </c>
       <c r="P92" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q92">
         <v>7</v>
@@ -18442,10 +18457,10 @@
         <v>1.75</v>
       </c>
       <c r="AS92">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT92">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18633,7 +18648,7 @@
         <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -18737,7 +18752,7 @@
         <v>130</v>
       </c>
       <c r="P94" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19018,7 +19033,7 @@
         <v>2.22</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU95">
         <v>2.05</v>
@@ -19122,13 +19137,13 @@
         <v>76</v>
       </c>
       <c r="Q96">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R96">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S96">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T96">
         <v>4.5</v>
@@ -19221,46 +19236,810 @@
         <v>3.68</v>
       </c>
       <c r="AX96">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="AY96">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AZ96">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BA96">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BB96">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BC96">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BD96">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BE96">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BF96">
+        <v>7</v>
+      </c>
+      <c r="BG96">
+        <v>6</v>
+      </c>
+      <c r="BH96">
+        <v>7</v>
+      </c>
+      <c r="BI96">
+        <v>11</v>
+      </c>
+      <c r="BJ96">
+        <v>14</v>
+      </c>
+      <c r="BK96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5139352</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45115.45833333334</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s">
+        <v>71</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>76</v>
+      </c>
+      <c r="P97" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q97">
+        <v>11</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>14</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>2.05</v>
+      </c>
+      <c r="V97">
+        <v>3.75</v>
+      </c>
+      <c r="W97">
+        <v>1.48</v>
+      </c>
+      <c r="X97">
+        <v>2.5</v>
+      </c>
+      <c r="Y97">
+        <v>3.1</v>
+      </c>
+      <c r="Z97">
+        <v>1.32</v>
+      </c>
+      <c r="AA97">
+        <v>7.25</v>
+      </c>
+      <c r="AB97">
+        <v>1.06</v>
+      </c>
+      <c r="AC97">
+        <v>2.16</v>
+      </c>
+      <c r="AD97">
+        <v>3.25</v>
+      </c>
+      <c r="AE97">
+        <v>3.05</v>
+      </c>
+      <c r="AF97">
+        <v>1.06</v>
+      </c>
+      <c r="AG97">
+        <v>9.6</v>
+      </c>
+      <c r="AH97">
+        <v>1.36</v>
+      </c>
+      <c r="AI97">
+        <v>2.92</v>
+      </c>
+      <c r="AJ97">
+        <v>2.04</v>
+      </c>
+      <c r="AK97">
+        <v>1.64</v>
+      </c>
+      <c r="AL97">
+        <v>1.88</v>
+      </c>
+      <c r="AM97">
+        <v>1.82</v>
+      </c>
+      <c r="AN97">
+        <v>1.31</v>
+      </c>
+      <c r="AO97">
+        <v>1.3</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>2</v>
+      </c>
+      <c r="AS97">
+        <v>0.9</v>
+      </c>
+      <c r="AT97">
+        <v>2.11</v>
+      </c>
+      <c r="AU97">
+        <v>1.44</v>
+      </c>
+      <c r="AV97">
+        <v>1.29</v>
+      </c>
+      <c r="AW97">
+        <v>2.73</v>
+      </c>
+      <c r="AX97">
+        <v>0</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>1.48</v>
+      </c>
+      <c r="BC97">
+        <v>1.85</v>
+      </c>
+      <c r="BD97">
+        <v>2.4</v>
+      </c>
+      <c r="BE97">
+        <v>3.2</v>
+      </c>
+      <c r="BF97">
+        <v>4</v>
+      </c>
+      <c r="BG97">
+        <v>7</v>
+      </c>
+      <c r="BH97">
+        <v>8</v>
+      </c>
+      <c r="BI97">
+        <v>4</v>
+      </c>
+      <c r="BJ97">
+        <v>12</v>
+      </c>
+      <c r="BK97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5139353</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45115.5625</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" t="s">
+        <v>69</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>132</v>
+      </c>
+      <c r="P98" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q98">
+        <v>6</v>
+      </c>
+      <c r="R98">
+        <v>6</v>
+      </c>
+      <c r="S98">
+        <v>12</v>
+      </c>
+      <c r="T98">
+        <v>3.2</v>
+      </c>
+      <c r="U98">
+        <v>2.3</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
+        <v>1.3</v>
+      </c>
+      <c r="X98">
+        <v>3.15</v>
+      </c>
+      <c r="Y98">
+        <v>2.4</v>
+      </c>
+      <c r="Z98">
+        <v>1.52</v>
+      </c>
+      <c r="AA98">
+        <v>5.25</v>
+      </c>
+      <c r="AB98">
+        <v>1.13</v>
+      </c>
+      <c r="AC98">
+        <v>3.02</v>
+      </c>
+      <c r="AD98">
+        <v>3.5</v>
+      </c>
+      <c r="AE98">
+        <v>2.05</v>
+      </c>
+      <c r="AF98">
+        <v>1.03</v>
+      </c>
+      <c r="AG98">
+        <v>16</v>
+      </c>
+      <c r="AH98">
+        <v>1.19</v>
+      </c>
+      <c r="AI98">
+        <v>4.23</v>
+      </c>
+      <c r="AJ98">
+        <v>1.6</v>
+      </c>
+      <c r="AK98">
+        <v>2.19</v>
+      </c>
+      <c r="AL98">
+        <v>1.52</v>
+      </c>
+      <c r="AM98">
+        <v>2.35</v>
+      </c>
+      <c r="AN98">
+        <v>1.52</v>
+      </c>
+      <c r="AO98">
+        <v>1.25</v>
+      </c>
+      <c r="AP98">
+        <v>1.38</v>
+      </c>
+      <c r="AQ98">
+        <v>0.5</v>
+      </c>
+      <c r="AR98">
+        <v>1.67</v>
+      </c>
+      <c r="AS98">
+        <v>0.44</v>
+      </c>
+      <c r="AT98">
+        <v>1.8</v>
+      </c>
+      <c r="AU98">
+        <v>1.4</v>
+      </c>
+      <c r="AV98">
+        <v>1.9</v>
+      </c>
+      <c r="AW98">
+        <v>3.3</v>
+      </c>
+      <c r="AX98">
+        <v>2.23</v>
+      </c>
+      <c r="AY98">
+        <v>6.6</v>
+      </c>
+      <c r="AZ98">
+        <v>2</v>
+      </c>
+      <c r="BA98">
+        <v>0</v>
+      </c>
+      <c r="BB98">
+        <v>1.15</v>
+      </c>
+      <c r="BC98">
+        <v>1.29</v>
+      </c>
+      <c r="BD98">
+        <v>1.52</v>
+      </c>
+      <c r="BE98">
+        <v>1.83</v>
+      </c>
+      <c r="BF98">
+        <v>4</v>
+      </c>
+      <c r="BG98">
+        <v>11</v>
+      </c>
+      <c r="BH98">
+        <v>17</v>
+      </c>
+      <c r="BI98">
+        <v>13</v>
+      </c>
+      <c r="BJ98">
+        <v>21</v>
+      </c>
+      <c r="BK98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5139354</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45116.45833333334</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>70</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>133</v>
+      </c>
+      <c r="P99" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q99">
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>5</v>
       </c>
-      <c r="BG96">
+      <c r="T99">
+        <v>3.6</v>
+      </c>
+      <c r="U99">
+        <v>2.2</v>
+      </c>
+      <c r="V99">
+        <v>2.75</v>
+      </c>
+      <c r="W99">
+        <v>1.37</v>
+      </c>
+      <c r="X99">
+        <v>2.85</v>
+      </c>
+      <c r="Y99">
+        <v>2.73</v>
+      </c>
+      <c r="Z99">
+        <v>1.4</v>
+      </c>
+      <c r="AA99">
+        <v>6.75</v>
+      </c>
+      <c r="AB99">
+        <v>1.07</v>
+      </c>
+      <c r="AC99">
+        <v>3</v>
+      </c>
+      <c r="AD99">
+        <v>3.4</v>
+      </c>
+      <c r="AE99">
+        <v>2.05</v>
+      </c>
+      <c r="AF99">
+        <v>1.01</v>
+      </c>
+      <c r="AG99">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH99">
+        <v>1.26</v>
+      </c>
+      <c r="AI99">
+        <v>3.34</v>
+      </c>
+      <c r="AJ99">
+        <v>1.85</v>
+      </c>
+      <c r="AK99">
+        <v>1.85</v>
+      </c>
+      <c r="AL99">
+        <v>1.68</v>
+      </c>
+      <c r="AM99">
+        <v>2.13</v>
+      </c>
+      <c r="AN99">
+        <v>1.58</v>
+      </c>
+      <c r="AO99">
+        <v>1.28</v>
+      </c>
+      <c r="AP99">
+        <v>1.35</v>
+      </c>
+      <c r="AQ99">
+        <v>0.5</v>
+      </c>
+      <c r="AR99">
+        <v>1</v>
+      </c>
+      <c r="AS99">
+        <v>0.73</v>
+      </c>
+      <c r="AT99">
+        <v>0.9</v>
+      </c>
+      <c r="AU99">
+        <v>1.24</v>
+      </c>
+      <c r="AV99">
+        <v>1.36</v>
+      </c>
+      <c r="AW99">
+        <v>2.6</v>
+      </c>
+      <c r="AX99">
+        <v>2.57</v>
+      </c>
+      <c r="AY99">
+        <v>6.4</v>
+      </c>
+      <c r="AZ99">
+        <v>1.84</v>
+      </c>
+      <c r="BA99">
+        <v>1.33</v>
+      </c>
+      <c r="BB99">
+        <v>1.6</v>
+      </c>
+      <c r="BC99">
+        <v>2.03</v>
+      </c>
+      <c r="BD99">
+        <v>2.7</v>
+      </c>
+      <c r="BE99">
+        <v>3.8</v>
+      </c>
+      <c r="BF99">
+        <v>6</v>
+      </c>
+      <c r="BG99">
+        <v>2</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>2</v>
+      </c>
+      <c r="BJ99">
+        <v>13</v>
+      </c>
+      <c r="BK99">
         <v>4</v>
       </c>
-      <c r="BH96">
-        <v>2</v>
-      </c>
-      <c r="BI96">
-        <v>2</v>
-      </c>
-      <c r="BJ96">
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5139355</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45116.54166666666</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>134</v>
+      </c>
+      <c r="P100" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q100">
         <v>7</v>
       </c>
-      <c r="BK96">
-        <v>6</v>
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>8</v>
+      </c>
+      <c r="T100">
+        <v>2.1</v>
+      </c>
+      <c r="U100">
+        <v>2.2</v>
+      </c>
+      <c r="V100">
+        <v>5.5</v>
+      </c>
+      <c r="W100">
+        <v>1.37</v>
+      </c>
+      <c r="X100">
+        <v>2.85</v>
+      </c>
+      <c r="Y100">
+        <v>2.73</v>
+      </c>
+      <c r="Z100">
+        <v>1.4</v>
+      </c>
+      <c r="AA100">
+        <v>6.75</v>
+      </c>
+      <c r="AB100">
+        <v>1.07</v>
+      </c>
+      <c r="AC100">
+        <v>1.65</v>
+      </c>
+      <c r="AD100">
+        <v>3.5</v>
+      </c>
+      <c r="AE100">
+        <v>4.5</v>
+      </c>
+      <c r="AF100">
+        <v>1.02</v>
+      </c>
+      <c r="AG100">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH100">
+        <v>1.26</v>
+      </c>
+      <c r="AI100">
+        <v>3.34</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>1.75</v>
+      </c>
+      <c r="AL100">
+        <v>1.87</v>
+      </c>
+      <c r="AM100">
+        <v>1.89</v>
+      </c>
+      <c r="AN100">
+        <v>1.14</v>
+      </c>
+      <c r="AO100">
+        <v>1.23</v>
+      </c>
+      <c r="AP100">
+        <v>2.1</v>
+      </c>
+      <c r="AQ100">
+        <v>2.56</v>
+      </c>
+      <c r="AR100">
+        <v>1.33</v>
+      </c>
+      <c r="AS100">
+        <v>2.6</v>
+      </c>
+      <c r="AT100">
+        <v>1.2</v>
+      </c>
+      <c r="AU100">
+        <v>1.77</v>
+      </c>
+      <c r="AV100">
+        <v>1.39</v>
+      </c>
+      <c r="AW100">
+        <v>3.16</v>
+      </c>
+      <c r="AX100">
+        <v>1.29</v>
+      </c>
+      <c r="AY100">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ100">
+        <v>5.17</v>
+      </c>
+      <c r="BA100">
+        <v>0</v>
+      </c>
+      <c r="BB100">
+        <v>1.17</v>
+      </c>
+      <c r="BC100">
+        <v>1.32</v>
+      </c>
+      <c r="BD100">
+        <v>1.55</v>
+      </c>
+      <c r="BE100">
+        <v>1.9</v>
+      </c>
+      <c r="BF100">
+        <v>10</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>3</v>
+      </c>
+      <c r="BI100">
+        <v>5</v>
+      </c>
+      <c r="BJ100">
+        <v>13</v>
+      </c>
+      <c r="BK100">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
